--- a/Manure-application-rates.xlsx
+++ b/Manure-application-rates.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asykes\Documents\GitHub\IPCC-C-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alasdair/Documents/GitHub/soil-c-macc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997F4F8C-8E6B-A847-8F97-BFAF244ECBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manure nutrient content" sheetId="10" r:id="rId1"/>
@@ -24,11 +25,14 @@
     <sheet name="2008" sheetId="8" r:id="rId10"/>
     <sheet name="2007" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alasdair Sykes</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,6 +437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,24 +681,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
       <c r="S1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="2:28" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -737,7 +775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -827,7 +865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -917,7 +955,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +1045,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1103,19 +1141,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B17" sqref="B17:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>51</v>
       </c>
@@ -1179,7 +1217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -1211,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
         <v>48</v>
       </c>
@@ -1222,12 +1260,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1297,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -1291,7 +1329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -1323,7 +1361,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -1358,279 +1396,279 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>23.1</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1.8</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.9</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>0.8</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>1.3</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>23</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>33</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>21</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>8</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>21</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>4.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.4</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.5</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.2</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.1</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.3</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>277</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>35</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>28</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>12</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>11</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>21</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>23.2</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>24.3</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>0.7</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>0.4</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>0.6</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>2.1</v>
       </c>
-      <c r="J16">
+      <c r="J18">
         <v>0.5</v>
       </c>
-      <c r="K16">
+      <c r="K18">
         <v>0.6</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>26</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>12</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J17">
+      <c r="J19">
         <v>32</v>
       </c>
-      <c r="K17">
+      <c r="K19">
         <v>13</v>
       </c>
-      <c r="L17">
+      <c r="L19">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>17.2</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>31</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>0.3</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>0.1</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>0.1</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>0.8</v>
       </c>
-      <c r="J18">
+      <c r="J20">
         <v>0.7</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <v>0.4</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>598</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>538</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>19</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>17</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>9</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>22</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>47</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>12</v>
       </c>
-      <c r="K19">
+      <c r="K21">
         <v>19</v>
       </c>
-      <c r="L19">
+      <c r="L21">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -1638,7 +1676,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -1687,7 +1725,7 @@
         <v>34.514000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -1736,7 +1774,7 @@
         <v>29.332399999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -1785,53 +1823,53 @@
         <v>27.0306</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31">
-        <f>C12*'Manure nutrient content'!S$4</f>
+        <f>C13*'Manure nutrient content'!S$4</f>
         <v>138</v>
       </c>
       <c r="D31">
-        <f>D12*'Manure nutrient content'!T$4</f>
+        <f>D13*'Manure nutrient content'!T$4</f>
         <v>49.4</v>
       </c>
       <c r="E31">
-        <f>E12*'Manure nutrient content'!U$4</f>
+        <f>E13*'Manure nutrient content'!U$4</f>
         <v>231</v>
       </c>
       <c r="F31">
-        <f>F12*'Manure nutrient content'!V$4</f>
+        <f>F13*'Manure nutrient content'!V$4</f>
         <v>75.600000000000009</v>
       </c>
       <c r="G31">
-        <f>G12*'Manure nutrient content'!W$4</f>
+        <f>G13*'Manure nutrient content'!W$4</f>
         <v>95</v>
       </c>
       <c r="H31">
-        <f>H12*'Manure nutrient content'!X$4</f>
+        <f>H13*'Manure nutrient content'!X$4</f>
         <v>240</v>
       </c>
       <c r="I31">
-        <f>I12*'Manure nutrient content'!Y$4</f>
+        <f>I13*'Manure nutrient content'!Y$4</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>J12*'Manure nutrient content'!Z$4</f>
+        <f>J13*'Manure nutrient content'!Z$4</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>K12*'Manure nutrient content'!AA$4</f>
+        <f>K13*'Manure nutrient content'!AA$4</f>
         <v>304.5</v>
       </c>
       <c r="L31">
-        <f>L12*'Manure nutrient content'!AB$4</f>
+        <f>L13*'Manure nutrient content'!AB$4</f>
         <v>379.25</v>
       </c>
       <c r="N31">
@@ -1839,48 +1877,48 @@
         <v>30.5959</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32">
-        <f>C12*'Manure nutrient content'!S$5</f>
+        <f>C13*'Manure nutrient content'!S$5</f>
         <v>73.600000000000009</v>
       </c>
       <c r="D32">
-        <f>D12*'Manure nutrient content'!T$5</f>
+        <f>D13*'Manure nutrient content'!T$5</f>
         <v>22.8</v>
       </c>
       <c r="E32">
-        <f>E12*'Manure nutrient content'!U$5</f>
+        <f>E13*'Manure nutrient content'!U$5</f>
         <v>198</v>
       </c>
       <c r="F32">
-        <f>F12*'Manure nutrient content'!V$5</f>
+        <f>F13*'Manure nutrient content'!V$5</f>
         <v>37.800000000000004</v>
       </c>
       <c r="G32">
-        <f>G12*'Manure nutrient content'!W$5</f>
+        <f>G13*'Manure nutrient content'!W$5</f>
         <v>70</v>
       </c>
       <c r="H32">
-        <f>H12*'Manure nutrient content'!X$5</f>
+        <f>H13*'Manure nutrient content'!X$5</f>
         <v>200</v>
       </c>
       <c r="I32">
-        <f>I12*'Manure nutrient content'!Y$5</f>
+        <f>I13*'Manure nutrient content'!Y$5</f>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>J12*'Manure nutrient content'!Z$5</f>
+        <f>J13*'Manure nutrient content'!Z$5</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>K12*'Manure nutrient content'!AA$5</f>
+        <f>K13*'Manure nutrient content'!AA$5</f>
         <v>516.6</v>
       </c>
       <c r="L32">
-        <f>L12*'Manure nutrient content'!AB$5</f>
+        <f>L13*'Manure nutrient content'!AB$5</f>
         <v>139.4</v>
       </c>
       <c r="N32">
@@ -1888,48 +1926,48 @@
         <v>24.991800000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33">
-        <f>C12*'Manure nutrient content'!S$6</f>
+        <f>C13*'Manure nutrient content'!S$6</f>
         <v>184</v>
       </c>
       <c r="D33">
-        <f>D12*'Manure nutrient content'!T$6</f>
+        <f>D13*'Manure nutrient content'!T$6</f>
         <v>60.800000000000004</v>
       </c>
       <c r="E33">
-        <f>E12*'Manure nutrient content'!U$6</f>
+        <f>E13*'Manure nutrient content'!U$6</f>
         <v>264</v>
       </c>
       <c r="F33">
-        <f>F12*'Manure nutrient content'!V$6</f>
+        <f>F13*'Manure nutrient content'!V$6</f>
         <v>50.4</v>
       </c>
       <c r="G33">
-        <f>G12*'Manure nutrient content'!W$6</f>
+        <f>G13*'Manure nutrient content'!W$6</f>
         <v>47.5</v>
       </c>
       <c r="H33">
-        <f>H12*'Manure nutrient content'!X$6</f>
+        <f>H13*'Manure nutrient content'!X$6</f>
         <v>144</v>
       </c>
       <c r="I33">
-        <f>I12*'Manure nutrient content'!Y$6</f>
+        <f>I13*'Manure nutrient content'!Y$6</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>J12*'Manure nutrient content'!Z$6</f>
+        <f>J13*'Manure nutrient content'!Z$6</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>K12*'Manure nutrient content'!AA$6</f>
+        <f>K13*'Manure nutrient content'!AA$6</f>
         <v>27.3</v>
       </c>
       <c r="L33">
-        <f>L12*'Manure nutrient content'!AB$6</f>
+        <f>L13*'Manure nutrient content'!AB$6</f>
         <v>276.75</v>
       </c>
       <c r="N33">
@@ -1937,53 +1975,53 @@
         <v>25.100300000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36">
-        <f>C17*'Manure nutrient content'!S$4</f>
+        <f>C19*'Manure nutrient content'!S$4</f>
         <v>90</v>
       </c>
       <c r="D36">
-        <f>D17*'Manure nutrient content'!T$4</f>
+        <f>D19*'Manure nutrient content'!T$4</f>
         <v>67.600000000000009</v>
       </c>
       <c r="E36">
-        <f>E17*'Manure nutrient content'!U$4</f>
+        <f>E19*'Manure nutrient content'!U$4</f>
         <v>84</v>
       </c>
       <c r="F36">
-        <f>F17*'Manure nutrient content'!V$4</f>
+        <f>F19*'Manure nutrient content'!V$4</f>
         <v>43.2</v>
       </c>
       <c r="G36">
-        <f>G17*'Manure nutrient content'!W$4</f>
+        <f>G19*'Manure nutrient content'!W$4</f>
         <v>76</v>
       </c>
       <c r="H36">
-        <f>H17*'Manure nutrient content'!X$4</f>
+        <f>H19*'Manure nutrient content'!X$4</f>
         <v>150</v>
       </c>
       <c r="I36">
-        <f>I17*'Manure nutrient content'!Y$4</f>
+        <f>I19*'Manure nutrient content'!Y$4</f>
         <v>53.333333333333336</v>
       </c>
       <c r="J36">
-        <f>J17*'Manure nutrient content'!Z$4</f>
+        <f>J19*'Manure nutrient content'!Z$4</f>
         <v>394.88</v>
       </c>
       <c r="K36">
-        <f>K17*'Manure nutrient content'!AA$4</f>
+        <f>K19*'Manure nutrient content'!AA$4</f>
         <v>188.5</v>
       </c>
       <c r="L36">
-        <f>L17*'Manure nutrient content'!AB$4</f>
+        <f>L19*'Manure nutrient content'!AB$4</f>
         <v>74</v>
       </c>
       <c r="N36">
@@ -1991,48 +2029,48 @@
         <v>17.582299999999996</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37">
-        <f>C17*'Manure nutrient content'!S$5</f>
+        <f>C19*'Manure nutrient content'!S$5</f>
         <v>48</v>
       </c>
       <c r="D37">
-        <f>D17*'Manure nutrient content'!T$5</f>
+        <f>D19*'Manure nutrient content'!T$5</f>
         <v>31.2</v>
       </c>
       <c r="E37">
-        <f>E17*'Manure nutrient content'!U$5</f>
+        <f>E19*'Manure nutrient content'!U$5</f>
         <v>72</v>
       </c>
       <c r="F37">
-        <f>F17*'Manure nutrient content'!V$5</f>
+        <f>F19*'Manure nutrient content'!V$5</f>
         <v>21.6</v>
       </c>
       <c r="G37">
-        <f>G17*'Manure nutrient content'!W$5</f>
+        <f>G19*'Manure nutrient content'!W$5</f>
         <v>56</v>
       </c>
       <c r="H37">
-        <f>H17*'Manure nutrient content'!X$5</f>
+        <f>H19*'Manure nutrient content'!X$5</f>
         <v>125</v>
       </c>
       <c r="I37">
-        <f>I17*'Manure nutrient content'!Y$5</f>
+        <f>I19*'Manure nutrient content'!Y$5</f>
         <v>33.066666666666663</v>
       </c>
       <c r="J37">
-        <f>J17*'Manure nutrient content'!Z$5</f>
+        <f>J19*'Manure nutrient content'!Z$5</f>
         <v>304</v>
       </c>
       <c r="K37">
-        <f>K17*'Manure nutrient content'!AA$5</f>
+        <f>K19*'Manure nutrient content'!AA$5</f>
         <v>319.8</v>
       </c>
       <c r="L37">
-        <f>L17*'Manure nutrient content'!AB$5</f>
+        <f>L19*'Manure nutrient content'!AB$5</f>
         <v>27.2</v>
       </c>
       <c r="N37">
@@ -2040,48 +2078,48 @@
         <v>14.903400000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>61</v>
       </c>
       <c r="C38">
-        <f>C17*'Manure nutrient content'!S$6</f>
+        <f>C19*'Manure nutrient content'!S$6</f>
         <v>120</v>
       </c>
       <c r="D38">
-        <f>D17*'Manure nutrient content'!T$6</f>
+        <f>D19*'Manure nutrient content'!T$6</f>
         <v>83.2</v>
       </c>
       <c r="E38">
-        <f>E17*'Manure nutrient content'!U$6</f>
+        <f>E19*'Manure nutrient content'!U$6</f>
         <v>96</v>
       </c>
       <c r="F38">
-        <f>F17*'Manure nutrient content'!V$6</f>
+        <f>F19*'Manure nutrient content'!V$6</f>
         <v>28.799999999999997</v>
       </c>
       <c r="G38">
-        <f>G17*'Manure nutrient content'!W$6</f>
+        <f>G19*'Manure nutrient content'!W$6</f>
         <v>38</v>
       </c>
       <c r="H38">
-        <f>H17*'Manure nutrient content'!X$6</f>
+        <f>H19*'Manure nutrient content'!X$6</f>
         <v>90</v>
       </c>
       <c r="I38">
-        <f>I17*'Manure nutrient content'!Y$6</f>
+        <f>I19*'Manure nutrient content'!Y$6</f>
         <v>64</v>
       </c>
       <c r="J38">
-        <f>J17*'Manure nutrient content'!Z$6</f>
+        <f>J19*'Manure nutrient content'!Z$6</f>
         <v>259.84000000000003</v>
       </c>
       <c r="K38">
-        <f>K17*'Manure nutrient content'!AA$6</f>
+        <f>K19*'Manure nutrient content'!AA$6</f>
         <v>16.900000000000002</v>
       </c>
       <c r="L38">
-        <f>L17*'Manure nutrient content'!AB$6</f>
+        <f>L19*'Manure nutrient content'!AB$6</f>
         <v>54</v>
       </c>
       <c r="N38">
@@ -2095,28 +2133,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:L38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -2148,7 +2186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>51</v>
       </c>
@@ -2177,7 +2215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -2203,12 +2241,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>56</v>
       </c>
@@ -2237,7 +2275,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -2266,7 +2304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -2295,7 +2333,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -2327,7 +2365,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -2368,333 +2406,333 @@
         <v>58333.333333333336</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>141</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>102</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>156</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>148</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>196</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>233</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>23</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>39</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>22</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>37</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>8</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>7.3</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>2.8</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.6</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.4</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.3</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>473</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>114</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>22</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>20</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>21</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>21</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="C15">
-        <f>IFERROR((C13*1000000)/C12, "")</f>
+      <c r="C16">
+        <f>IFERROR((C14*1000000)/C13, "")</f>
         <v>317391.30434782611</v>
       </c>
-      <c r="D15">
-        <f t="shared" ref="D15:K15" si="1">IFERROR((D13*1000000)/D12, "")</f>
+      <c r="D16">
+        <f t="shared" ref="D16:K16" si="1">IFERROR((D14*1000000)/D13, "")</f>
         <v>71794.871794871797</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f t="shared" si="1"/>
         <v>27272.727272727272</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>10810.81081081081</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H15">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>25000</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K15">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>89</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>64</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>136</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>98</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>81</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>106</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <v>100</v>
       </c>
-      <c r="K17">
+      <c r="K19">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>15</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>24</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>19</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>25</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>14</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>7</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>20.9</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>30.4</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>0.6</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>0.3</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>0.1</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="K21">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>831</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>753</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>18</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>20</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <v>20</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>13</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="K22">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C21">
-        <f>IFERROR((C19*1000000)/C18, "")</f>
+      <c r="C23">
+        <f>IFERROR((C21*1000000)/C20, "")</f>
         <v>1393333.3333333333</v>
       </c>
-      <c r="D21">
-        <f t="shared" ref="D21:K21" si="2">IFERROR((D19*1000000)/D18, "")</f>
+      <c r="D23">
+        <f t="shared" ref="D23:K23" si="2">IFERROR((D21*1000000)/D20, "")</f>
         <v>1266666.6666666667</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <f t="shared" si="2"/>
         <v>5263.1578947368425</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <f t="shared" si="2"/>
         <v>24000</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <f t="shared" si="2"/>
         <v>21428.571428571428</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>14285.714285714286</v>
       </c>
-      <c r="I21">
+      <c r="I23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K21">
+      <c r="K23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -2735,7 +2773,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -2776,7 +2814,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -2817,259 +2855,259 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31">
-        <f>C12*'Manure nutrient content'!S$4</f>
+        <f>C13*'Manure nutrient content'!S$4</f>
         <v>138</v>
       </c>
       <c r="D31">
-        <f>D12*'Manure nutrient content'!T$4</f>
+        <f>D13*'Manure nutrient content'!T$4</f>
         <v>101.4</v>
       </c>
       <c r="E31">
-        <f>E12*'Manure nutrient content'!U$4</f>
+        <f>E13*'Manure nutrient content'!U$4</f>
         <v>154</v>
       </c>
       <c r="F31">
-        <f>F12*'Manure nutrient content'!V$4</f>
+        <f>F13*'Manure nutrient content'!V$4</f>
         <v>133.20000000000002</v>
       </c>
       <c r="G31">
-        <f>G12*'Manure nutrient content'!E$4</f>
+        <f>G13*'Manure nutrient content'!E$4</f>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>H12*'Manure nutrient content'!W$4</f>
+        <f>H13*'Manure nutrient content'!W$4</f>
         <v>228</v>
       </c>
       <c r="I31">
-        <f>I12*'Manure nutrient content'!X$4</f>
+        <f>I13*'Manure nutrient content'!X$4</f>
         <v>240</v>
       </c>
       <c r="J31">
-        <f>J12*'Manure nutrient content'!F$4</f>
+        <f>J13*'Manure nutrient content'!F$4</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>K12*'Manure nutrient content'!AB$4</f>
+        <f>K13*'Manure nutrient content'!AB$4</f>
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32">
-        <f>C12*'Manure nutrient content'!S$5</f>
+        <f>C13*'Manure nutrient content'!S$5</f>
         <v>73.600000000000009</v>
       </c>
       <c r="D32">
-        <f>D12*'Manure nutrient content'!T$5</f>
+        <f>D13*'Manure nutrient content'!T$5</f>
         <v>46.8</v>
       </c>
       <c r="E32">
-        <f>E12*'Manure nutrient content'!U$5</f>
+        <f>E13*'Manure nutrient content'!U$5</f>
         <v>132</v>
       </c>
       <c r="F32">
-        <f>F12*'Manure nutrient content'!V$5</f>
+        <f>F13*'Manure nutrient content'!V$5</f>
         <v>66.600000000000009</v>
       </c>
       <c r="G32">
-        <f>G12*'Manure nutrient content'!E$5</f>
+        <f>G13*'Manure nutrient content'!E$5</f>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>H12*'Manure nutrient content'!W$5</f>
+        <f>H13*'Manure nutrient content'!W$5</f>
         <v>168</v>
       </c>
       <c r="I32">
-        <f>I12*'Manure nutrient content'!X$5</f>
+        <f>I13*'Manure nutrient content'!X$5</f>
         <v>200</v>
       </c>
       <c r="J32">
-        <f>J12*'Manure nutrient content'!F$5</f>
+        <f>J13*'Manure nutrient content'!F$5</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>K12*'Manure nutrient content'!AB$5</f>
+        <f>K13*'Manure nutrient content'!AB$5</f>
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33">
-        <f>C12*'Manure nutrient content'!S$6</f>
+        <f>C13*'Manure nutrient content'!S$6</f>
         <v>184</v>
       </c>
       <c r="D33">
-        <f>D12*'Manure nutrient content'!T$6</f>
+        <f>D13*'Manure nutrient content'!T$6</f>
         <v>124.80000000000001</v>
       </c>
       <c r="E33">
-        <f>E12*'Manure nutrient content'!U$6</f>
+        <f>E13*'Manure nutrient content'!U$6</f>
         <v>176</v>
       </c>
       <c r="F33">
-        <f>F12*'Manure nutrient content'!V$6</f>
+        <f>F13*'Manure nutrient content'!V$6</f>
         <v>88.8</v>
       </c>
       <c r="G33">
-        <f>G12*'Manure nutrient content'!E$6</f>
+        <f>G13*'Manure nutrient content'!E$6</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>H12*'Manure nutrient content'!W$6</f>
+        <f>H13*'Manure nutrient content'!W$6</f>
         <v>114</v>
       </c>
       <c r="I33">
-        <f>I12*'Manure nutrient content'!X$6</f>
+        <f>I13*'Manure nutrient content'!X$6</f>
         <v>144</v>
       </c>
       <c r="J33">
-        <f>J12*'Manure nutrient content'!F$6</f>
+        <f>J13*'Manure nutrient content'!F$6</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>K12*'Manure nutrient content'!AB$6</f>
+        <f>K13*'Manure nutrient content'!AB$6</f>
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36">
-        <f>C18*'Manure nutrient content'!S$4</f>
+        <f>C20*'Manure nutrient content'!S$4</f>
         <v>90</v>
       </c>
       <c r="D36">
-        <f>D18*'Manure nutrient content'!T$4</f>
+        <f>D20*'Manure nutrient content'!T$4</f>
         <v>62.400000000000006</v>
       </c>
       <c r="E36">
-        <f>E18*'Manure nutrient content'!U$4</f>
+        <f>E20*'Manure nutrient content'!U$4</f>
         <v>133</v>
       </c>
       <c r="F36">
-        <f>F18*'Manure nutrient content'!V$4</f>
+        <f>F20*'Manure nutrient content'!V$4</f>
         <v>90</v>
       </c>
       <c r="G36">
-        <f>G18*'Manure nutrient content'!E$4</f>
+        <f>G20*'Manure nutrient content'!E$4</f>
         <v>98</v>
       </c>
       <c r="H36">
-        <f>H18*'Manure nutrient content'!W$4</f>
+        <f>H20*'Manure nutrient content'!W$4</f>
         <v>133</v>
       </c>
       <c r="I36">
-        <f>I18*'Manure nutrient content'!X$4</f>
+        <f>I20*'Manure nutrient content'!X$4</f>
         <v>90</v>
       </c>
       <c r="J36">
-        <f>J18*'Manure nutrient content'!F$4</f>
+        <f>J20*'Manure nutrient content'!F$4</f>
         <v>0</v>
       </c>
       <c r="K36">
-        <f>K18*'Manure nutrient content'!AB$4</f>
+        <f>K20*'Manure nutrient content'!AB$4</f>
         <v>27.75</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37">
-        <f>C18*'Manure nutrient content'!S$5</f>
+        <f>C20*'Manure nutrient content'!S$5</f>
         <v>48</v>
       </c>
       <c r="D37">
-        <f>D18*'Manure nutrient content'!T$5</f>
+        <f>D20*'Manure nutrient content'!T$5</f>
         <v>28.799999999999997</v>
       </c>
       <c r="E37">
-        <f>E18*'Manure nutrient content'!U$5</f>
+        <f>E20*'Manure nutrient content'!U$5</f>
         <v>114</v>
       </c>
       <c r="F37">
-        <f>F18*'Manure nutrient content'!V$5</f>
+        <f>F20*'Manure nutrient content'!V$5</f>
         <v>45</v>
       </c>
       <c r="G37">
-        <f>G18*'Manure nutrient content'!E$5</f>
+        <f>G20*'Manure nutrient content'!E$5</f>
         <v>44.800000000000004</v>
       </c>
       <c r="H37">
-        <f>H18*'Manure nutrient content'!W$5</f>
+        <f>H20*'Manure nutrient content'!W$5</f>
         <v>98</v>
       </c>
       <c r="I37">
-        <f>I18*'Manure nutrient content'!X$5</f>
+        <f>I20*'Manure nutrient content'!X$5</f>
         <v>75</v>
       </c>
       <c r="J37">
-        <f>J18*'Manure nutrient content'!F$5</f>
+        <f>J20*'Manure nutrient content'!F$5</f>
         <v>0</v>
       </c>
       <c r="K37">
-        <f>K18*'Manure nutrient content'!AB$5</f>
+        <f>K20*'Manure nutrient content'!AB$5</f>
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>61</v>
       </c>
       <c r="C38">
-        <f>C18*'Manure nutrient content'!S$6</f>
+        <f>C20*'Manure nutrient content'!S$6</f>
         <v>120</v>
       </c>
       <c r="D38">
-        <f>D18*'Manure nutrient content'!T$6</f>
+        <f>D20*'Manure nutrient content'!T$6</f>
         <v>76.800000000000011</v>
       </c>
       <c r="E38">
-        <f>E18*'Manure nutrient content'!U$6</f>
+        <f>E20*'Manure nutrient content'!U$6</f>
         <v>152</v>
       </c>
       <c r="F38">
-        <f>F18*'Manure nutrient content'!V$6</f>
+        <f>F20*'Manure nutrient content'!V$6</f>
         <v>60</v>
       </c>
       <c r="G38">
-        <f>G18*'Manure nutrient content'!E$6</f>
+        <f>G20*'Manure nutrient content'!E$6</f>
         <v>112</v>
       </c>
       <c r="H38">
-        <f>H18*'Manure nutrient content'!W$6</f>
+        <f>H20*'Manure nutrient content'!W$6</f>
         <v>66.5</v>
       </c>
       <c r="I38">
-        <f>I18*'Manure nutrient content'!X$6</f>
+        <f>I20*'Manure nutrient content'!X$6</f>
         <v>54</v>
       </c>
       <c r="J38">
-        <f>J18*'Manure nutrient content'!F$6</f>
+        <f>J20*'Manure nutrient content'!F$6</f>
         <v>0</v>
       </c>
       <c r="K38">
-        <f>K18*'Manure nutrient content'!AB$6</f>
+        <f>K20*'Manure nutrient content'!AB$6</f>
         <v>20.25</v>
       </c>
     </row>
@@ -3080,16 +3118,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3121,7 +3159,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3161,7 +3199,7 @@
         <v>34.514000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3201,7 +3239,7 @@
         <v>29.332399999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3241,7 +3279,7 @@
         <v>27.0306</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3281,7 +3319,7 @@
         <v>30.5959</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3321,7 +3359,7 @@
         <v>24.991800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3361,7 +3399,7 @@
         <v>25.100300000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3401,7 +3439,7 @@
         <v>17.582299999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3441,7 +3479,7 @@
         <v>14.903400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3487,26 +3525,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:L22"/>
+      <selection activeCell="B5" sqref="B5:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -3538,7 +3576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>19</v>
       </c>
@@ -3570,553 +3608,553 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>9.0784360121550094</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>1.6151421496356726</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>1.7564710138936994</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>0.38240459591359144</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>2.3912781932563401</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>1.6948823084676927</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>0.52008893019520275</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <v>2.060723139778343</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>1.282555723052816</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>294294.14178371697</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>52357.792922627697</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>56939.227077188698</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>12396.3458262923</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>77517.665235318505</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>54942.716314470403</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>16859.6358621771</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>66802.1173540171</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>41576.394359145299</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>23.551982466048489</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>36.253430200569788</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>20.683342741604651</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>30.692701656380649</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>7.6649540261623397</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>7.3722618542542531</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>12.861878323801497</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>20.628150546283614</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>26.137652026898849</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>6.9312104671508905</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>1.8981495911763699</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>1.1776935490795499</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>0.38047734407570899</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>0.59416934024415902</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>0.40505209165428302</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>0.21684658504292201</v>
       </c>
-      <c r="K7">
+      <c r="K9">
         <v>1.37800413358917</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>1.08670932829246</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>347</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>54</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>27</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>38</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>33</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>29</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K10">
         <v>40</v>
       </c>
-      <c r="L8">
+      <c r="L10">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>20.308550793931808</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>5.7477370764276339</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>1.6277852460771847</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>0.39166512266173292</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>1.4053052857253516</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>1.4307106554822429</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>1.567642560842079</v>
       </c>
-      <c r="K10">
+      <c r="K12">
         <v>1.5061830658903395</v>
       </c>
-      <c r="L10">
+      <c r="L12">
         <v>1.2652389936399886</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>328396.14531409001</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>92942.855417418905</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>26321.838797607401</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>6333.3576994826899</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>22724.262479606201</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>23135.0759139619</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>25349.311205636201</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>24355.490354513098</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>20459.343092890798</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>25.15203283864458</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>34.244085001896615</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>18.028911683932922</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>27.563396478452471</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>6.8426624604889552</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>8.5965644704453563</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>19.41194441384614</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <v>19.243344264588739</v>
       </c>
-      <c r="L12">
+      <c r="L14">
         <v>29.231949278008432</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>8.2598306310242897</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>3.1827430412330799</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>0.47455410704078299</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>0.17456884931070102</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>0.15549445781149901</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>0.19888217162302099</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>0.49207942005309702</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>0.46868108562476601</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>0.59806647955275594</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>479</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>118</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>31</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>22</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <v>29</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <v>20</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>3</v>
       </c>
-      <c r="K14">
+      <c r="K16">
         <v>15</v>
       </c>
-      <c r="L14">
+      <c r="L16">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>21.266720644774281</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>24.059862987311949</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>0.37231852965493917</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>0.50277420566474729</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>0.21497264438599928</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>2.0943310619099815</v>
       </c>
-      <c r="J16">
+      <c r="J18">
         <v>0.75017437871859882</v>
       </c>
-      <c r="K16">
+      <c r="K18">
         <v>0.12082467636941017</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>0.23674596989674002</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>1185049.32073554</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>1340692.09664962</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>20746.772764575599</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>28016.177992762801</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>11978.959542544701</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <v>116702.78853837401</v>
       </c>
-      <c r="J17">
+      <c r="J19">
         <v>41802.102580029299</v>
       </c>
-      <c r="K17">
+      <c r="K19">
         <v>6732.7352933864004</v>
       </c>
-      <c r="L17">
+      <c r="L19">
         <v>13192.238497849799</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>14.8164877163968</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>24.898719359195056</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>40.294213500970685</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>4.6798733401456536</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>9.5864807771618263</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>11.556120709558414</v>
       </c>
-      <c r="J18">
+      <c r="J20">
         <v>26.117636520915759</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <v>19.486124112445413</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>15.12303631273514</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>17.558268704002501</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>33.381516261569701</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>0.83597489123193303</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>0.13111216448110602</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>0.114836065385004</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>1.3486315114915202</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>1.09177212099524</v>
       </c>
-      <c r="K19">
+      <c r="K21">
         <v>0.13119491554316898</v>
       </c>
-      <c r="L19">
+      <c r="L21">
         <v>0.19950670184924499</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>682</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>491</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>17</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>14</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <v>6</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>58</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>18</v>
       </c>
-      <c r="K20">
+      <c r="K22">
         <v>5</v>
       </c>
-      <c r="L20">
+      <c r="L22">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <f>C7/SUM($C$7:$L$7)</f>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>C9/SUM($C$9:$L$9)</f>
         <v>0.49268243803143685</v>
       </c>
-      <c r="D22">
-        <f t="shared" ref="D22:L22" si="0">D7/SUM($C$7:$L$7)</f>
+      <c r="D24">
+        <f>D9/SUM($C$9:$L$9)</f>
         <v>0.13492375866542711</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+      <c r="E24">
+        <f>E9/SUM($C$9:$L$9)</f>
         <v>8.3712496073274537E-2</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
+      <c r="F24">
+        <f>F9/SUM($C$9:$L$9)</f>
         <v>2.7044988228730027E-2</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
+      <c r="G24">
+        <f>G9/SUM($C$9:$L$9)</f>
         <v>4.2234585220343707E-2</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
+      <c r="H24">
+        <f>H9/SUM($C$9:$L$9)</f>
         <v>2.8791803825861342E-2</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
+      <c r="I24">
+        <f>I9/SUM($C$9:$L$9)</f>
         <v>1.5413830629450474E-2</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
+      <c r="J24">
+        <f>J9/SUM($C$9:$L$9)</f>
         <v>0</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
+      <c r="K24">
+        <f>K9/SUM($C$9:$L$9)</f>
         <v>9.7950919160759944E-2</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
+      <c r="L24">
+        <f>L9/SUM($C$9:$L$9)</f>
         <v>7.7245180164715779E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -4124,454 +4162,454 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>59</v>
       </c>
       <c r="C26">
-        <f>C$6*'Manure nutrient content'!S$4</f>
+        <f>C$8*'Manure nutrient content'!S$4</f>
         <v>141.31189479629094</v>
       </c>
       <c r="D26">
-        <f>D$6*'Manure nutrient content'!T$4</f>
+        <f>D$8*'Manure nutrient content'!T$4</f>
         <v>94.258918521481448</v>
       </c>
       <c r="E26">
-        <f>E$6*'Manure nutrient content'!U$4</f>
+        <f>E$8*'Manure nutrient content'!U$4</f>
         <v>144.78339919123255</v>
       </c>
       <c r="F26">
-        <f>F$6*'Manure nutrient content'!V$4</f>
+        <f>F$8*'Manure nutrient content'!V$4</f>
         <v>110.49372596297034</v>
       </c>
       <c r="G26">
-        <f>G$6*'Manure nutrient content'!W$4</f>
+        <f>G$8*'Manure nutrient content'!W$4</f>
         <v>145.63412649708445</v>
       </c>
       <c r="H26">
-        <f>H$6*'Manure nutrient content'!X$4</f>
+        <f>H$8*'Manure nutrient content'!X$4</f>
         <v>221.1678556276276</v>
       </c>
       <c r="I26">
-        <f>I$6*'Manure nutrient content'!Y$4</f>
+        <f>I$8*'Manure nutrient content'!Y$4</f>
         <v>85.74585549200998</v>
       </c>
       <c r="J26">
-        <f>J$6*'Manure nutrient content'!Z$4</f>
+        <f>J$8*'Manure nutrient content'!Z$4</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>K$6*'Manure nutrient content'!AA$4</f>
+        <f>K$8*'Manure nutrient content'!AA$4</f>
         <v>299.10818292111242</v>
       </c>
       <c r="L26">
-        <f>L$6*'Manure nutrient content'!AB$4</f>
+        <f>L$8*'Manure nutrient content'!AB$4</f>
         <v>241.77328124881436</v>
       </c>
       <c r="N26">
-        <f>SUMPRODUCT($C$4:$L$4, C26:L26)/100</f>
+        <f>SUMPRODUCT($C$6:$L$6, C26:L26)/100</f>
         <v>34.258612257803271</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>60</v>
       </c>
       <c r="C27">
-        <f>C$6*'Manure nutrient content'!S$5</f>
+        <f>C$8*'Manure nutrient content'!S$5</f>
         <v>75.366343891355172</v>
       </c>
       <c r="D27">
-        <f>D$6*'Manure nutrient content'!T$5</f>
+        <f>D$8*'Manure nutrient content'!T$5</f>
         <v>43.504116240683743</v>
       </c>
       <c r="E27">
-        <f>E$6*'Manure nutrient content'!U$5</f>
+        <f>E$8*'Manure nutrient content'!U$5</f>
         <v>124.10005644962791</v>
       </c>
       <c r="F27">
-        <f>F$6*'Manure nutrient content'!V$5</f>
+        <f>F$8*'Manure nutrient content'!V$5</f>
         <v>55.246862981485172</v>
       </c>
       <c r="G27">
-        <f>G$6*'Manure nutrient content'!W$5</f>
+        <f>G$8*'Manure nutrient content'!W$5</f>
         <v>107.30935636627275</v>
       </c>
       <c r="H27">
-        <f>H$6*'Manure nutrient content'!X$5</f>
+        <f>H$8*'Manure nutrient content'!X$5</f>
         <v>184.30654635635634</v>
       </c>
       <c r="I27">
-        <f>I$6*'Manure nutrient content'!Y$5</f>
+        <f>I$8*'Manure nutrient content'!Y$5</f>
         <v>53.16243040504618</v>
       </c>
       <c r="J27">
-        <f>J$6*'Manure nutrient content'!Z$5</f>
+        <f>J$8*'Manure nutrient content'!Z$5</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>K$6*'Manure nutrient content'!AA$5</f>
+        <f>K$8*'Manure nutrient content'!AA$5</f>
         <v>507.45250343857691</v>
       </c>
       <c r="L27">
-        <f>L$6*'Manure nutrient content'!AB$5</f>
+        <f>L$8*'Manure nutrient content'!AB$5</f>
         <v>88.86801689145608</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:N38" si="1">SUMPRODUCT($C$4:$L$4, C27:L27)/100</f>
+        <f>SUMPRODUCT($C$6:$L$6, C27:L27)/100</f>
         <v>27.49909588556951</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28">
-        <f>C$6*'Manure nutrient content'!S$6</f>
+        <f>C$8*'Manure nutrient content'!S$6</f>
         <v>188.41585972838791</v>
       </c>
       <c r="D28">
-        <f>D$6*'Manure nutrient content'!T$6</f>
+        <f>D$8*'Manure nutrient content'!T$6</f>
         <v>116.01097664182333</v>
       </c>
       <c r="E28">
-        <f>E$6*'Manure nutrient content'!U$6</f>
+        <f>E$8*'Manure nutrient content'!U$6</f>
         <v>165.46674193283721</v>
       </c>
       <c r="F28">
-        <f>F$6*'Manure nutrient content'!V$6</f>
+        <f>F$8*'Manure nutrient content'!V$6</f>
         <v>73.662483975313549</v>
       </c>
       <c r="G28">
-        <f>G$6*'Manure nutrient content'!W$6</f>
+        <f>G$8*'Manure nutrient content'!W$6</f>
         <v>72.817063248542226</v>
       </c>
       <c r="H28">
-        <f>H$6*'Manure nutrient content'!X$6</f>
+        <f>H$8*'Manure nutrient content'!X$6</f>
         <v>132.70071337657654</v>
       </c>
       <c r="I28">
-        <f>I$6*'Manure nutrient content'!Y$6</f>
+        <f>I$8*'Manure nutrient content'!Y$6</f>
         <v>102.89502659041197</v>
       </c>
       <c r="J28">
-        <f>J$6*'Manure nutrient content'!Z$6</f>
+        <f>J$8*'Manure nutrient content'!Z$6</f>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>K$6*'Manure nutrient content'!AA$6</f>
+        <f>K$8*'Manure nutrient content'!AA$6</f>
         <v>26.816595710168698</v>
       </c>
       <c r="L28">
-        <f>L$6*'Manure nutrient content'!AB$6</f>
+        <f>L$8*'Manure nutrient content'!AB$6</f>
         <v>176.42915118156722</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT($C$6:$L$6, C28:L28)/100</f>
         <v>29.50796260840298</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31">
-        <f>C12*'Manure nutrient content'!S$4</f>
+        <f>C14*'Manure nutrient content'!S$4</f>
         <v>150.91219703186749</v>
       </c>
       <c r="D31">
-        <f>D12*'Manure nutrient content'!T$4</f>
+        <f>D14*'Manure nutrient content'!T$4</f>
         <v>89.034621004931196</v>
       </c>
       <c r="E31">
-        <f>E12*'Manure nutrient content'!U$4</f>
+        <f>E14*'Manure nutrient content'!U$4</f>
         <v>126.20238178753046</v>
       </c>
       <c r="F31">
-        <f>F12*'Manure nutrient content'!V$4</f>
+        <f>F14*'Manure nutrient content'!V$4</f>
         <v>99.228227322428893</v>
       </c>
       <c r="G31">
-        <f>G12*'Manure nutrient content'!W$4</f>
+        <f>G14*'Manure nutrient content'!W$4</f>
         <v>130.01058674929016</v>
       </c>
       <c r="H31">
-        <f>H12*'Manure nutrient content'!X$4</f>
+        <f>H14*'Manure nutrient content'!X$4</f>
         <v>257.89693411336071</v>
       </c>
       <c r="I31">
-        <f>I12*'Manure nutrient content'!Y$4</f>
+        <f>I14*'Manure nutrient content'!Y$4</f>
         <v>129.41296275897426</v>
       </c>
       <c r="J31">
-        <f>J12*'Manure nutrient content'!Z$4</f>
+        <f>J14*'Manure nutrient content'!Z$4</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>K12*'Manure nutrient content'!AA$4</f>
+        <f>K14*'Manure nutrient content'!AA$4</f>
         <v>279.02849183653672</v>
       </c>
       <c r="L31">
-        <f>L12*'Manure nutrient content'!AB$4</f>
+        <f>L14*'Manure nutrient content'!AB$4</f>
         <v>270.39553082157801</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT($C$6:$L$6, C31:L31)/100</f>
         <v>35.105669357417007</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32">
-        <f>C12*'Manure nutrient content'!S$5</f>
+        <f>C14*'Manure nutrient content'!S$5</f>
         <v>80.486505083662664</v>
       </c>
       <c r="D32">
-        <f>D12*'Manure nutrient content'!T$5</f>
+        <f>D14*'Manure nutrient content'!T$5</f>
         <v>41.092902002275935</v>
       </c>
       <c r="E32">
-        <f>E12*'Manure nutrient content'!U$5</f>
+        <f>E14*'Manure nutrient content'!U$5</f>
         <v>108.17347010359754</v>
       </c>
       <c r="F32">
-        <f>F12*'Manure nutrient content'!V$5</f>
+        <f>F14*'Manure nutrient content'!V$5</f>
         <v>49.614113661214446</v>
       </c>
       <c r="G32">
-        <f>G12*'Manure nutrient content'!W$5</f>
+        <f>G14*'Manure nutrient content'!W$5</f>
         <v>95.797274446845378</v>
       </c>
       <c r="H32">
-        <f>H12*'Manure nutrient content'!X$5</f>
+        <f>H14*'Manure nutrient content'!X$5</f>
         <v>214.91411176113391</v>
       </c>
       <c r="I32">
-        <f>I12*'Manure nutrient content'!Y$5</f>
+        <f>I14*'Manure nutrient content'!Y$5</f>
         <v>80.236036910564039</v>
       </c>
       <c r="J32">
-        <f>J12*'Manure nutrient content'!Z$5</f>
+        <f>J14*'Manure nutrient content'!Z$5</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>K12*'Manure nutrient content'!AA$5</f>
+        <f>K14*'Manure nutrient content'!AA$5</f>
         <v>473.38626890888298</v>
       </c>
       <c r="L32">
-        <f>L12*'Manure nutrient content'!AB$5</f>
+        <f>L14*'Manure nutrient content'!AB$5</f>
         <v>99.388627545228672</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT($C$6:$L$6, C32:L32)/100</f>
         <v>27.440901193946505</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33">
-        <f>C12*'Manure nutrient content'!S$6</f>
+        <f>C14*'Manure nutrient content'!S$6</f>
         <v>201.21626270915664</v>
       </c>
       <c r="D33">
-        <f>D12*'Manure nutrient content'!T$6</f>
+        <f>D14*'Manure nutrient content'!T$6</f>
         <v>109.58107200606918</v>
       </c>
       <c r="E33">
-        <f>E12*'Manure nutrient content'!U$6</f>
+        <f>E14*'Manure nutrient content'!U$6</f>
         <v>144.23129347146337</v>
       </c>
       <c r="F33">
-        <f>F12*'Manure nutrient content'!V$6</f>
+        <f>F14*'Manure nutrient content'!V$6</f>
         <v>66.152151548285929</v>
       </c>
       <c r="G33">
-        <f>G12*'Manure nutrient content'!W$6</f>
+        <f>G14*'Manure nutrient content'!W$6</f>
         <v>65.005293374645078</v>
       </c>
       <c r="H33">
-        <f>H12*'Manure nutrient content'!X$6</f>
+        <f>H14*'Manure nutrient content'!X$6</f>
         <v>154.73816046801642</v>
       </c>
       <c r="I33">
-        <f>I12*'Manure nutrient content'!Y$6</f>
+        <f>I14*'Manure nutrient content'!Y$6</f>
         <v>155.29555531076912</v>
       </c>
       <c r="J33">
-        <f>J12*'Manure nutrient content'!Z$6</f>
+        <f>J14*'Manure nutrient content'!Z$6</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>K12*'Manure nutrient content'!AA$6</f>
+        <f>K14*'Manure nutrient content'!AA$6</f>
         <v>25.016347543965363</v>
       </c>
       <c r="L33">
-        <f>L12*'Manure nutrient content'!AB$6</f>
+        <f>L14*'Manure nutrient content'!AB$6</f>
         <v>197.31565762655691</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT($C$6:$L$6, C33:L33)/100</f>
         <v>30.854492494041732</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36">
-        <f>C18*'Manure nutrient content'!S$4</f>
+        <f>C20*'Manure nutrient content'!S$4</f>
         <v>88.8989262983808</v>
       </c>
       <c r="D36">
-        <f>D18*'Manure nutrient content'!T$4</f>
+        <f>D20*'Manure nutrient content'!T$4</f>
         <v>64.736670333907142</v>
       </c>
       <c r="E36">
-        <f>E18*'Manure nutrient content'!U$4</f>
+        <f>E20*'Manure nutrient content'!U$4</f>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>F18*'Manure nutrient content'!V$4</f>
+        <f>F20*'Manure nutrient content'!V$4</f>
         <v>145.05916860349447</v>
       </c>
       <c r="G36">
-        <f>G18*'Manure nutrient content'!W$4</f>
+        <f>G20*'Manure nutrient content'!W$4</f>
         <v>88.917593462767414</v>
       </c>
       <c r="H36">
-        <f>H18*'Manure nutrient content'!X$4</f>
+        <f>H20*'Manure nutrient content'!X$4</f>
         <v>287.59442331485479</v>
       </c>
       <c r="I36">
-        <f>I18*'Manure nutrient content'!Y$4</f>
+        <f>I20*'Manure nutrient content'!Y$4</f>
         <v>77.040804730389425</v>
       </c>
       <c r="J36">
-        <f>J18*'Manure nutrient content'!Z$4</f>
+        <f>J20*'Manure nutrient content'!Z$4</f>
         <v>322.29163466810047</v>
       </c>
       <c r="K36">
-        <f>K18*'Manure nutrient content'!AA$4</f>
+        <f>K20*'Manure nutrient content'!AA$4</f>
         <v>282.54879963045852</v>
       </c>
       <c r="L36">
-        <f>L18*'Manure nutrient content'!AB$4</f>
+        <f>L20*'Manure nutrient content'!AB$4</f>
         <v>139.88808589280004</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT($C$6:$L$6, C36:L36)/100</f>
         <v>24.688960182979425</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37">
-        <f>C18*'Manure nutrient content'!S$5</f>
+        <f>C20*'Manure nutrient content'!S$5</f>
         <v>47.41276069246976</v>
       </c>
       <c r="D37">
-        <f>D18*'Manure nutrient content'!T$5</f>
+        <f>D20*'Manure nutrient content'!T$5</f>
         <v>29.878463231034065</v>
       </c>
       <c r="E37">
-        <f>E18*'Manure nutrient content'!U$5</f>
+        <f>E20*'Manure nutrient content'!U$5</f>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>F18*'Manure nutrient content'!V$5</f>
+        <f>F20*'Manure nutrient content'!V$5</f>
         <v>72.529584301747235</v>
       </c>
       <c r="G37">
-        <f>G18*'Manure nutrient content'!W$5</f>
+        <f>G20*'Manure nutrient content'!W$5</f>
         <v>65.518226762039149</v>
       </c>
       <c r="H37">
-        <f>H18*'Manure nutrient content'!X$5</f>
+        <f>H20*'Manure nutrient content'!X$5</f>
         <v>239.66201942904567</v>
       </c>
       <c r="I37">
-        <f>I18*'Manure nutrient content'!Y$5</f>
+        <f>I20*'Manure nutrient content'!Y$5</f>
         <v>47.765298932841439</v>
       </c>
       <c r="J37">
-        <f>J18*'Manure nutrient content'!Z$5</f>
+        <f>J20*'Manure nutrient content'!Z$5</f>
         <v>248.11754694869973</v>
       </c>
       <c r="K37">
-        <f>K18*'Manure nutrient content'!AA$5</f>
+        <f>K20*'Manure nutrient content'!AA$5</f>
         <v>479.35865316615718</v>
       </c>
       <c r="L37">
-        <f>L18*'Manure nutrient content'!AB$5</f>
+        <f>L20*'Manure nutrient content'!AB$5</f>
         <v>51.418323463299473</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT($C$6:$L$6, C37:L37)/100</f>
         <v>21.479130865550488</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>61</v>
       </c>
       <c r="C38">
-        <f>C18*'Manure nutrient content'!S$6</f>
+        <f>C20*'Manure nutrient content'!S$6</f>
         <v>118.5319017311744</v>
       </c>
       <c r="D38">
-        <f>D18*'Manure nutrient content'!T$6</f>
+        <f>D20*'Manure nutrient content'!T$6</f>
         <v>79.675901949424187</v>
       </c>
       <c r="E38">
-        <f>E18*'Manure nutrient content'!U$6</f>
+        <f>E20*'Manure nutrient content'!U$6</f>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>F18*'Manure nutrient content'!V$6</f>
+        <f>F20*'Manure nutrient content'!V$6</f>
         <v>96.706112402329637</v>
       </c>
       <c r="G38">
-        <f>G18*'Manure nutrient content'!W$6</f>
+        <f>G20*'Manure nutrient content'!W$6</f>
         <v>44.458796731383707</v>
       </c>
       <c r="H38">
-        <f>H18*'Manure nutrient content'!X$6</f>
+        <f>H20*'Manure nutrient content'!X$6</f>
         <v>172.55665398891287</v>
       </c>
       <c r="I38">
-        <f>I18*'Manure nutrient content'!Y$6</f>
+        <f>I20*'Manure nutrient content'!Y$6</f>
         <v>92.44896567646731</v>
       </c>
       <c r="J38">
-        <f>J18*'Manure nutrient content'!Z$6</f>
+        <f>J20*'Manure nutrient content'!Z$6</f>
         <v>212.07520854983599</v>
       </c>
       <c r="K38">
-        <f>K18*'Manure nutrient content'!AA$6</f>
+        <f>K20*'Manure nutrient content'!AA$6</f>
         <v>25.331961346179039</v>
       </c>
       <c r="L38">
-        <f>L18*'Manure nutrient content'!AB$6</f>
+        <f>L20*'Manure nutrient content'!AB$6</f>
         <v>102.08049511096219</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT($C$6:$L$6, C38:L38)/100</f>
         <v>18.717373916212154</v>
       </c>
     </row>
@@ -4581,21 +4619,1071 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:N38"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>9.6</v>
+      </c>
+      <c r="D6">
+        <v>1.6</v>
+      </c>
+      <c r="E6">
+        <v>1.2</v>
+      </c>
+      <c r="F6">
+        <v>1.5</v>
+      </c>
+      <c r="G6">
+        <v>1.2</v>
+      </c>
+      <c r="H6">
+        <v>1.4</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>2.4</v>
+      </c>
+      <c r="L6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>293748</v>
+      </c>
+      <c r="D7" s="1">
+        <v>48991</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35323</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45426</v>
+      </c>
+      <c r="G7" s="1">
+        <v>37423</v>
+      </c>
+      <c r="H7" s="1">
+        <v>42663</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4467</v>
+      </c>
+      <c r="K7" s="1">
+        <v>74791</v>
+      </c>
+      <c r="L7" s="1">
+        <v>25318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>6.9</v>
+      </c>
+      <c r="D9">
+        <v>1.7</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>1.4</v>
+      </c>
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>1.6</v>
+      </c>
+      <c r="L9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>353</v>
+      </c>
+      <c r="D10">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>26.1</v>
+      </c>
+      <c r="D12">
+        <v>5.3</v>
+      </c>
+      <c r="E12">
+        <v>1.7</v>
+      </c>
+      <c r="F12">
+        <v>0.7</v>
+      </c>
+      <c r="G12">
+        <v>1.7</v>
+      </c>
+      <c r="H12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>1.3</v>
+      </c>
+      <c r="L12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>387958</v>
+      </c>
+      <c r="D13" s="1">
+        <v>78598</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25700</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10218</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25422</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15838</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7342</v>
+      </c>
+      <c r="K13" s="1">
+        <v>19415</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17973</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>9.6</v>
+      </c>
+      <c r="D15">
+        <v>2.6</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>0.4</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>512</v>
+      </c>
+      <c r="D16">
+        <v>88</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>23.1</v>
+      </c>
+      <c r="D18">
+        <v>24.5</v>
+      </c>
+      <c r="F18">
+        <v>0.3</v>
+      </c>
+      <c r="G18">
+        <v>0.4</v>
+      </c>
+      <c r="I18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.7</v>
+      </c>
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1297087</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1377212</v>
+      </c>
+      <c r="F19" s="1">
+        <v>14509</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20277</v>
+      </c>
+      <c r="I19" s="1">
+        <v>61379</v>
+      </c>
+      <c r="J19" s="1">
+        <v>38066</v>
+      </c>
+      <c r="L19" s="1">
+        <v>17617</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>22.3</v>
+      </c>
+      <c r="D21">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="I21">
+        <v>0.8</v>
+      </c>
+      <c r="J21">
+        <v>1.5</v>
+      </c>
+      <c r="L21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>734</v>
+      </c>
+      <c r="D22">
+        <v>481</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <f>C8*'Manure nutrient content'!S$4</f>
+        <v>138</v>
+      </c>
+      <c r="D26">
+        <f>D8*'Manure nutrient content'!T$4</f>
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <f>E8*'Manure nutrient content'!U$4</f>
+        <v>126</v>
+      </c>
+      <c r="F26">
+        <f>F8*'Manure nutrient content'!V$4</f>
+        <v>111.60000000000001</v>
+      </c>
+      <c r="G26">
+        <f>G8*'Manure nutrient content'!W$4</f>
+        <v>152</v>
+      </c>
+      <c r="H26">
+        <f>H8*'Manure nutrient content'!X$4</f>
+        <v>240</v>
+      </c>
+      <c r="I26">
+        <f>I8*'Manure nutrient content'!Y$4</f>
+        <v>80</v>
+      </c>
+      <c r="J26">
+        <f>J8*'Manure nutrient content'!Z$4</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>K8*'Manure nutrient content'!AA$4</f>
+        <v>319</v>
+      </c>
+      <c r="L26">
+        <f>L8*'Manure nutrient content'!AB$4</f>
+        <v>277.5</v>
+      </c>
+      <c r="N26">
+        <f>SUMPRODUCT($C$6:$L$6, C26:L26)/100</f>
+        <v>33.03</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <f>C8*'Manure nutrient content'!S$5</f>
+        <v>73.600000000000009</v>
+      </c>
+      <c r="D27">
+        <f>D8*'Manure nutrient content'!T$5</f>
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <f>E8*'Manure nutrient content'!U$5</f>
+        <v>108</v>
+      </c>
+      <c r="F27">
+        <f>F8*'Manure nutrient content'!V$5</f>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="G27">
+        <f>G8*'Manure nutrient content'!W$5</f>
+        <v>112</v>
+      </c>
+      <c r="H27">
+        <f>H8*'Manure nutrient content'!X$5</f>
+        <v>200</v>
+      </c>
+      <c r="I27">
+        <f>I8*'Manure nutrient content'!Y$5</f>
+        <v>49.599999999999994</v>
+      </c>
+      <c r="J27">
+        <f>J8*'Manure nutrient content'!Z$5</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>K8*'Manure nutrient content'!AA$5</f>
+        <v>541.20000000000005</v>
+      </c>
+      <c r="L27">
+        <f>L8*'Manure nutrient content'!AB$5</f>
+        <v>102</v>
+      </c>
+      <c r="N27">
+        <f>SUMPRODUCT($C$6:$L$6, C27:L27)/100</f>
+        <v>27.869</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <f>C8*'Manure nutrient content'!S$6</f>
+        <v>184</v>
+      </c>
+      <c r="D28">
+        <f>D8*'Manure nutrient content'!T$6</f>
+        <v>112</v>
+      </c>
+      <c r="E28">
+        <f>E8*'Manure nutrient content'!U$6</f>
+        <v>144</v>
+      </c>
+      <c r="F28">
+        <f>F8*'Manure nutrient content'!V$6</f>
+        <v>74.399999999999991</v>
+      </c>
+      <c r="G28">
+        <f>G8*'Manure nutrient content'!W$6</f>
+        <v>76</v>
+      </c>
+      <c r="H28">
+        <f>H8*'Manure nutrient content'!X$6</f>
+        <v>144</v>
+      </c>
+      <c r="I28">
+        <f>I8*'Manure nutrient content'!Y$6</f>
+        <v>96</v>
+      </c>
+      <c r="J28">
+        <f>J8*'Manure nutrient content'!Z$6</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>K8*'Manure nutrient content'!AA$6</f>
+        <v>28.6</v>
+      </c>
+      <c r="L28">
+        <f>L8*'Manure nutrient content'!AB$6</f>
+        <v>202.5</v>
+      </c>
+      <c r="N28">
+        <f>SUMPRODUCT($C$6:$L$6, C28:L28)/100</f>
+        <v>27.630399999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <f>C14*'Manure nutrient content'!S$4</f>
+        <v>150</v>
+      </c>
+      <c r="D31">
+        <f>D14*'Manure nutrient content'!T$4</f>
+        <v>85.8</v>
+      </c>
+      <c r="E31">
+        <f>E14*'Manure nutrient content'!U$4</f>
+        <v>147</v>
+      </c>
+      <c r="F31">
+        <f>F14*'Manure nutrient content'!V$4</f>
+        <v>118.8</v>
+      </c>
+      <c r="G31">
+        <f>G14*'Manure nutrient content'!W$4</f>
+        <v>171</v>
+      </c>
+      <c r="H31">
+        <f>H14*'Manure nutrient content'!X$4</f>
+        <v>210</v>
+      </c>
+      <c r="I31">
+        <f>I14*'Manure nutrient content'!Y$4</f>
+        <v>173.33333333333334</v>
+      </c>
+      <c r="J31">
+        <f>J14*'Manure nutrient content'!Z$4</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>K14*'Manure nutrient content'!AA$4</f>
+        <v>290</v>
+      </c>
+      <c r="L31">
+        <f>L14*'Manure nutrient content'!AB$4</f>
+        <v>240.5</v>
+      </c>
+      <c r="N31">
+        <f>SUMPRODUCT($C$6:$L$6, C31:L31)/100</f>
+        <v>33.368133333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <f>C14*'Manure nutrient content'!S$5</f>
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <f>D14*'Manure nutrient content'!T$5</f>
+        <v>39.6</v>
+      </c>
+      <c r="E32">
+        <f>E14*'Manure nutrient content'!U$5</f>
+        <v>126</v>
+      </c>
+      <c r="F32">
+        <f>F14*'Manure nutrient content'!V$5</f>
+        <v>59.4</v>
+      </c>
+      <c r="G32">
+        <f>G14*'Manure nutrient content'!W$5</f>
+        <v>126</v>
+      </c>
+      <c r="H32">
+        <f>H14*'Manure nutrient content'!X$5</f>
+        <v>175</v>
+      </c>
+      <c r="I32">
+        <f>I14*'Manure nutrient content'!Y$5</f>
+        <v>107.46666666666665</v>
+      </c>
+      <c r="J32">
+        <f>J14*'Manure nutrient content'!Z$5</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>K14*'Manure nutrient content'!AA$5</f>
+        <v>492</v>
+      </c>
+      <c r="L32">
+        <f>L14*'Manure nutrient content'!AB$5</f>
+        <v>88.399999999999991</v>
+      </c>
+      <c r="N32">
+        <f>SUMPRODUCT($C$6:$L$6, C32:L32)/100</f>
+        <v>27.301266666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33">
+        <f>C14*'Manure nutrient content'!S$6</f>
+        <v>200</v>
+      </c>
+      <c r="D33">
+        <f>D14*'Manure nutrient content'!T$6</f>
+        <v>105.60000000000001</v>
+      </c>
+      <c r="E33">
+        <f>E14*'Manure nutrient content'!U$6</f>
+        <v>168</v>
+      </c>
+      <c r="F33">
+        <f>F14*'Manure nutrient content'!V$6</f>
+        <v>79.2</v>
+      </c>
+      <c r="G33">
+        <f>G14*'Manure nutrient content'!W$6</f>
+        <v>85.5</v>
+      </c>
+      <c r="H33">
+        <f>H14*'Manure nutrient content'!X$6</f>
+        <v>126</v>
+      </c>
+      <c r="I33">
+        <f>I14*'Manure nutrient content'!Y$6</f>
+        <v>208</v>
+      </c>
+      <c r="J33">
+        <f>J14*'Manure nutrient content'!Z$6</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>K14*'Manure nutrient content'!AA$6</f>
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <f>L14*'Manure nutrient content'!AB$6</f>
+        <v>175.5</v>
+      </c>
+      <c r="N33">
+        <f>SUMPRODUCT($C$6:$L$6, C33:L33)/100</f>
+        <v>29.119600000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <f>C20*'Manure nutrient content'!S$4</f>
+        <v>102</v>
+      </c>
+      <c r="D36">
+        <f>D20*'Manure nutrient content'!T$4</f>
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <f>E20*'Manure nutrient content'!U$4</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>F20*'Manure nutrient content'!V$4</f>
+        <v>57.6</v>
+      </c>
+      <c r="G36">
+        <f>G20*'Manure nutrient content'!W$4</f>
+        <v>114</v>
+      </c>
+      <c r="H36">
+        <f>H20*'Manure nutrient content'!X$4</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>I20*'Manure nutrient content'!Y$4</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="J36">
+        <f>J20*'Manure nutrient content'!Z$4</f>
+        <v>493.6</v>
+      </c>
+      <c r="K36">
+        <f>K20*'Manure nutrient content'!AA$4</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>L20*'Manure nutrient content'!AB$4</f>
+        <v>194.25</v>
+      </c>
+      <c r="N36">
+        <f>SUMPRODUCT($C$6:$L$6, C36:L36)/100</f>
+        <v>14.912666666666668</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <f>C20*'Manure nutrient content'!S$5</f>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="D37">
+        <f>D20*'Manure nutrient content'!T$5</f>
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <f>E20*'Manure nutrient content'!U$5</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>F20*'Manure nutrient content'!V$5</f>
+        <v>28.8</v>
+      </c>
+      <c r="G37">
+        <f>G20*'Manure nutrient content'!W$5</f>
+        <v>84</v>
+      </c>
+      <c r="H37">
+        <f>H20*'Manure nutrient content'!X$5</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>I20*'Manure nutrient content'!Y$5</f>
+        <v>53.733333333333327</v>
+      </c>
+      <c r="J37">
+        <f>J20*'Manure nutrient content'!Z$5</f>
+        <v>380</v>
+      </c>
+      <c r="K37">
+        <f>K20*'Manure nutrient content'!AA$5</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>L20*'Manure nutrient content'!AB$5</f>
+        <v>71.399999999999991</v>
+      </c>
+      <c r="N37">
+        <f>SUMPRODUCT($C$6:$L$6, C37:L37)/100</f>
+        <v>7.8633333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <f>C20*'Manure nutrient content'!S$6</f>
+        <v>136</v>
+      </c>
+      <c r="D38">
+        <f>D20*'Manure nutrient content'!T$6</f>
+        <v>96</v>
+      </c>
+      <c r="E38">
+        <f>E20*'Manure nutrient content'!U$6</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>F20*'Manure nutrient content'!V$6</f>
+        <v>38.4</v>
+      </c>
+      <c r="G38">
+        <f>G20*'Manure nutrient content'!W$6</f>
+        <v>57</v>
+      </c>
+      <c r="H38">
+        <f>H20*'Manure nutrient content'!X$6</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>I20*'Manure nutrient content'!Y$6</f>
+        <v>104</v>
+      </c>
+      <c r="J38">
+        <f>J20*'Manure nutrient content'!Z$6</f>
+        <v>324.80000000000007</v>
+      </c>
+      <c r="K38">
+        <f>K20*'Manure nutrient content'!AA$6</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>L20*'Manure nutrient content'!AB$6</f>
+        <v>141.75</v>
+      </c>
+      <c r="N38">
+        <f>SUMPRODUCT($C$6:$L$6, C38:L38)/100</f>
+        <v>17.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N34" sqref="N34:N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -4627,7 +5715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>19</v>
       </c>
@@ -4659,7 +5747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>42</v>
       </c>
@@ -4682,7 +5770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
         <v>48</v>
       </c>
@@ -4693,482 +5781,511 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C5">
-        <v>9.6</v>
-      </c>
-      <c r="D5">
-        <v>1.6</v>
-      </c>
-      <c r="E5">
+      <c r="C6">
+        <v>7.2</v>
+      </c>
+      <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.9</v>
+      </c>
+      <c r="F6">
+        <v>1.8</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1.7</v>
+      </c>
+      <c r="I6">
+        <v>0.7</v>
+      </c>
+      <c r="K6">
+        <v>2.9</v>
+      </c>
+      <c r="L6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>175001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20278</v>
+      </c>
+      <c r="E7" s="1">
+        <v>22123</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43851</v>
+      </c>
+      <c r="G7" s="1">
+        <v>48108</v>
+      </c>
+      <c r="H7" s="1">
+        <v>42559</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16946</v>
+      </c>
+      <c r="K7" s="1">
+        <v>71816</v>
+      </c>
+      <c r="L7" s="1">
+        <v>22990</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>4.2</v>
+      </c>
+      <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
         <v>1.2</v>
       </c>
-      <c r="F5">
+      <c r="G9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>0.3</v>
+      </c>
+      <c r="K9">
         <v>1.5</v>
       </c>
-      <c r="G5">
+      <c r="L9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>227</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>19.3</v>
+      </c>
+      <c r="D12">
+        <v>3.5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.7</v>
+      </c>
+      <c r="G12">
+        <v>1.9</v>
+      </c>
+      <c r="H12">
+        <v>1.7</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1.9</v>
+      </c>
+      <c r="L12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>385589</v>
+      </c>
+      <c r="D13" s="1">
+        <v>69779</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40705</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14980</v>
+      </c>
+      <c r="G13" s="1">
+        <v>38094</v>
+      </c>
+      <c r="H13" s="1">
+        <v>34328</v>
+      </c>
+      <c r="I13" s="1">
+        <v>19798</v>
+      </c>
+      <c r="K13" s="1">
+        <v>38276</v>
+      </c>
+      <c r="L13" s="1">
+        <v>22611</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D15">
+        <v>2.1</v>
+      </c>
+      <c r="E15">
+        <v>0.8</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.3</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15">
+        <v>0.4</v>
+      </c>
+      <c r="K15">
+        <v>0.8</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>504</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>32</v>
+      </c>
+      <c r="L16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>24.4</v>
+      </c>
+      <c r="F18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
+        <v>0.3</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <v>1.5</v>
+      </c>
+      <c r="J18">
+        <v>0.7</v>
+      </c>
+      <c r="K18">
+        <v>0.2</v>
+      </c>
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1344933</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1367815</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12801</v>
+      </c>
+      <c r="G19" s="1">
+        <v>18898</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4111</v>
+      </c>
+      <c r="I19" s="1">
+        <v>84325</v>
+      </c>
+      <c r="J19" s="1">
+        <v>37355</v>
+      </c>
+      <c r="K19" s="1">
+        <v>13989</v>
+      </c>
+      <c r="L19" s="1">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <v>21</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>20.6</v>
+      </c>
+      <c r="D21">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>0.3</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.8</v>
+      </c>
+      <c r="J21">
         <v>1.2</v>
       </c>
-      <c r="H5">
-        <v>1.4</v>
-      </c>
-      <c r="I5">
+      <c r="K21">
+        <v>0.3</v>
+      </c>
+      <c r="L21">
         <v>0.1</v>
       </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1">
-        <v>293748</v>
-      </c>
-      <c r="D6" s="1">
-        <v>48991</v>
-      </c>
-      <c r="E6" s="1">
-        <v>35323</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45426</v>
-      </c>
-      <c r="G6" s="1">
-        <v>37423</v>
-      </c>
-      <c r="H6" s="1">
-        <v>42663</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4467</v>
-      </c>
-      <c r="K6" s="1">
-        <v>74791</v>
-      </c>
-      <c r="L6" s="1">
-        <v>25318</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>22</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>6.9</v>
-      </c>
-      <c r="D8">
-        <v>1.7</v>
-      </c>
-      <c r="E8">
-        <v>0.6</v>
-      </c>
-      <c r="F8">
-        <v>1.4</v>
-      </c>
-      <c r="G8">
-        <v>0.3</v>
-      </c>
-      <c r="H8">
-        <v>0.3</v>
-      </c>
-      <c r="I8">
-        <v>0.1</v>
-      </c>
-      <c r="K8">
-        <v>1.6</v>
-      </c>
-      <c r="L8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C9">
-        <v>353</v>
-      </c>
-      <c r="D9">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>26</v>
-      </c>
-      <c r="F9">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>34</v>
-      </c>
-      <c r="H9">
-        <v>39</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
+      <c r="C22">
+        <v>731</v>
+      </c>
+      <c r="D22">
+        <v>566</v>
+      </c>
+      <c r="E22">
         <v>4</v>
       </c>
-      <c r="K9">
-        <v>50</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>26.1</v>
-      </c>
-      <c r="D11">
-        <v>5.3</v>
-      </c>
-      <c r="E11">
-        <v>1.7</v>
-      </c>
-      <c r="F11">
-        <v>0.7</v>
-      </c>
-      <c r="G11">
-        <v>1.7</v>
-      </c>
-      <c r="H11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="K11">
-        <v>1.3</v>
-      </c>
-      <c r="L11">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1">
-        <v>387958</v>
-      </c>
-      <c r="D12" s="1">
-        <v>78598</v>
-      </c>
-      <c r="E12" s="1">
-        <v>25700</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10218</v>
-      </c>
-      <c r="G12" s="1">
-        <v>25422</v>
-      </c>
-      <c r="H12" s="1">
-        <v>15838</v>
-      </c>
-      <c r="I12" s="1">
-        <v>7342</v>
-      </c>
-      <c r="K12" s="1">
-        <v>19415</v>
-      </c>
-      <c r="L12" s="1">
-        <v>17973</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <v>33</v>
-      </c>
-      <c r="G13">
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
         <v>9</v>
       </c>
-      <c r="H13">
+      <c r="I22">
+        <v>47</v>
+      </c>
+      <c r="J22">
+        <v>17</v>
+      </c>
+      <c r="K22">
         <v>7</v>
       </c>
-      <c r="I13">
-        <v>26</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>9.6</v>
-      </c>
-      <c r="D14">
-        <v>2.6</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>0.3</v>
-      </c>
-      <c r="G14">
-        <v>0.2</v>
-      </c>
-      <c r="H14">
-        <v>0.1</v>
-      </c>
-      <c r="I14">
-        <v>0.2</v>
-      </c>
-      <c r="K14">
-        <v>0.4</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>512</v>
-      </c>
-      <c r="D15">
-        <v>88</v>
-      </c>
-      <c r="E15">
-        <v>26</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <v>25</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>15</v>
-      </c>
-      <c r="L15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>23.1</v>
-      </c>
-      <c r="D17">
-        <v>24.5</v>
-      </c>
-      <c r="F17">
-        <v>0.3</v>
-      </c>
-      <c r="G17">
-        <v>0.4</v>
-      </c>
-      <c r="I17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.7</v>
-      </c>
-      <c r="L17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1297087</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1377212</v>
-      </c>
-      <c r="F18" s="1">
-        <v>14509</v>
-      </c>
-      <c r="G18" s="1">
-        <v>20277</v>
-      </c>
-      <c r="I18" s="1">
-        <v>61379</v>
-      </c>
-      <c r="J18" s="1">
-        <v>38066</v>
-      </c>
-      <c r="L18" s="1">
-        <v>17617</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>30</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <v>13</v>
-      </c>
-      <c r="J19">
-        <v>40</v>
-      </c>
-      <c r="L19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20">
-        <v>22.3</v>
-      </c>
-      <c r="D20">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="F20">
-        <v>0.2</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="I20">
-        <v>0.8</v>
-      </c>
-      <c r="J20">
-        <v>1.5</v>
-      </c>
-      <c r="L20">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>734</v>
-      </c>
-      <c r="D21">
-        <v>481</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <v>14</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>40</v>
-      </c>
-      <c r="J21">
-        <v>17</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -5176,1086 +6293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26">
-        <f>C7*'Manure nutrient content'!S$4</f>
-        <v>138</v>
-      </c>
-      <c r="D26">
-        <f>D7*'Manure nutrient content'!T$4</f>
-        <v>91</v>
-      </c>
-      <c r="E26">
-        <f>E7*'Manure nutrient content'!U$4</f>
-        <v>126</v>
-      </c>
-      <c r="F26">
-        <f>F7*'Manure nutrient content'!V$4</f>
-        <v>111.60000000000001</v>
-      </c>
-      <c r="G26">
-        <f>G7*'Manure nutrient content'!W$4</f>
-        <v>152</v>
-      </c>
-      <c r="H26">
-        <f>H7*'Manure nutrient content'!X$4</f>
-        <v>240</v>
-      </c>
-      <c r="I26">
-        <f>I7*'Manure nutrient content'!Y$4</f>
-        <v>80</v>
-      </c>
-      <c r="J26">
-        <f>J7*'Manure nutrient content'!Z$4</f>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f>K7*'Manure nutrient content'!AA$4</f>
-        <v>319</v>
-      </c>
-      <c r="L26">
-        <f>L7*'Manure nutrient content'!AB$4</f>
-        <v>277.5</v>
-      </c>
-      <c r="N26">
-        <f>SUMPRODUCT($C$5:$L$5, C26:L26)/100</f>
-        <v>33.03</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27">
-        <f>C7*'Manure nutrient content'!S$5</f>
-        <v>73.600000000000009</v>
-      </c>
-      <c r="D27">
-        <f>D7*'Manure nutrient content'!T$5</f>
-        <v>42</v>
-      </c>
-      <c r="E27">
-        <f>E7*'Manure nutrient content'!U$5</f>
-        <v>108</v>
-      </c>
-      <c r="F27">
-        <f>F7*'Manure nutrient content'!V$5</f>
-        <v>55.800000000000004</v>
-      </c>
-      <c r="G27">
-        <f>G7*'Manure nutrient content'!W$5</f>
-        <v>112</v>
-      </c>
-      <c r="H27">
-        <f>H7*'Manure nutrient content'!X$5</f>
-        <v>200</v>
-      </c>
-      <c r="I27">
-        <f>I7*'Manure nutrient content'!Y$5</f>
-        <v>49.599999999999994</v>
-      </c>
-      <c r="J27">
-        <f>J7*'Manure nutrient content'!Z$5</f>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f>K7*'Manure nutrient content'!AA$5</f>
-        <v>541.20000000000005</v>
-      </c>
-      <c r="L27">
-        <f>L7*'Manure nutrient content'!AB$5</f>
-        <v>102</v>
-      </c>
-      <c r="N27">
-        <f>SUMPRODUCT($C$5:$L$5, C27:L27)/100</f>
-        <v>27.869</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28">
-        <f>C7*'Manure nutrient content'!S$6</f>
-        <v>184</v>
-      </c>
-      <c r="D28">
-        <f>D7*'Manure nutrient content'!T$6</f>
-        <v>112</v>
-      </c>
-      <c r="E28">
-        <f>E7*'Manure nutrient content'!U$6</f>
-        <v>144</v>
-      </c>
-      <c r="F28">
-        <f>F7*'Manure nutrient content'!V$6</f>
-        <v>74.399999999999991</v>
-      </c>
-      <c r="G28">
-        <f>G7*'Manure nutrient content'!W$6</f>
-        <v>76</v>
-      </c>
-      <c r="H28">
-        <f>H7*'Manure nutrient content'!X$6</f>
-        <v>144</v>
-      </c>
-      <c r="I28">
-        <f>I7*'Manure nutrient content'!Y$6</f>
-        <v>96</v>
-      </c>
-      <c r="J28">
-        <f>J7*'Manure nutrient content'!Z$6</f>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f>K7*'Manure nutrient content'!AA$6</f>
-        <v>28.6</v>
-      </c>
-      <c r="L28">
-        <f>L7*'Manure nutrient content'!AB$6</f>
-        <v>202.5</v>
-      </c>
-      <c r="N28">
-        <f t="shared" ref="N28:N38" si="0">SUMPRODUCT($C$5:$L$5, C28:L28)/100</f>
-        <v>27.630399999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31">
-        <f>C13*'Manure nutrient content'!S$4</f>
-        <v>150</v>
-      </c>
-      <c r="D31">
-        <f>D13*'Manure nutrient content'!T$4</f>
-        <v>85.8</v>
-      </c>
-      <c r="E31">
-        <f>E13*'Manure nutrient content'!U$4</f>
-        <v>147</v>
-      </c>
-      <c r="F31">
-        <f>F13*'Manure nutrient content'!V$4</f>
-        <v>118.8</v>
-      </c>
-      <c r="G31">
-        <f>G13*'Manure nutrient content'!W$4</f>
-        <v>171</v>
-      </c>
-      <c r="H31">
-        <f>H13*'Manure nutrient content'!X$4</f>
-        <v>210</v>
-      </c>
-      <c r="I31">
-        <f>I13*'Manure nutrient content'!Y$4</f>
-        <v>173.33333333333334</v>
-      </c>
-      <c r="J31">
-        <f>J13*'Manure nutrient content'!Z$4</f>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f>K13*'Manure nutrient content'!AA$4</f>
-        <v>290</v>
-      </c>
-      <c r="L31">
-        <f>L13*'Manure nutrient content'!AB$4</f>
-        <v>240.5</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>33.368133333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32">
-        <f>C13*'Manure nutrient content'!S$5</f>
-        <v>80</v>
-      </c>
-      <c r="D32">
-        <f>D13*'Manure nutrient content'!T$5</f>
-        <v>39.6</v>
-      </c>
-      <c r="E32">
-        <f>E13*'Manure nutrient content'!U$5</f>
-        <v>126</v>
-      </c>
-      <c r="F32">
-        <f>F13*'Manure nutrient content'!V$5</f>
-        <v>59.4</v>
-      </c>
-      <c r="G32">
-        <f>G13*'Manure nutrient content'!W$5</f>
-        <v>126</v>
-      </c>
-      <c r="H32">
-        <f>H13*'Manure nutrient content'!X$5</f>
-        <v>175</v>
-      </c>
-      <c r="I32">
-        <f>I13*'Manure nutrient content'!Y$5</f>
-        <v>107.46666666666665</v>
-      </c>
-      <c r="J32">
-        <f>J13*'Manure nutrient content'!Z$5</f>
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f>K13*'Manure nutrient content'!AA$5</f>
-        <v>492</v>
-      </c>
-      <c r="L32">
-        <f>L13*'Manure nutrient content'!AB$5</f>
-        <v>88.399999999999991</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>27.301266666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33">
-        <f>C13*'Manure nutrient content'!S$6</f>
-        <v>200</v>
-      </c>
-      <c r="D33">
-        <f>D13*'Manure nutrient content'!T$6</f>
-        <v>105.60000000000001</v>
-      </c>
-      <c r="E33">
-        <f>E13*'Manure nutrient content'!U$6</f>
-        <v>168</v>
-      </c>
-      <c r="F33">
-        <f>F13*'Manure nutrient content'!V$6</f>
-        <v>79.2</v>
-      </c>
-      <c r="G33">
-        <f>G13*'Manure nutrient content'!W$6</f>
-        <v>85.5</v>
-      </c>
-      <c r="H33">
-        <f>H13*'Manure nutrient content'!X$6</f>
-        <v>126</v>
-      </c>
-      <c r="I33">
-        <f>I13*'Manure nutrient content'!Y$6</f>
-        <v>208</v>
-      </c>
-      <c r="J33">
-        <f>J13*'Manure nutrient content'!Z$6</f>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f>K13*'Manure nutrient content'!AA$6</f>
-        <v>26</v>
-      </c>
-      <c r="L33">
-        <f>L13*'Manure nutrient content'!AB$6</f>
-        <v>175.5</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>29.119600000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36">
-        <f>C19*'Manure nutrient content'!S$4</f>
-        <v>102</v>
-      </c>
-      <c r="D36">
-        <f>D19*'Manure nutrient content'!T$4</f>
-        <v>78</v>
-      </c>
-      <c r="E36">
-        <f>E19*'Manure nutrient content'!U$4</f>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f>F19*'Manure nutrient content'!V$4</f>
-        <v>57.6</v>
-      </c>
-      <c r="G36">
-        <f>G19*'Manure nutrient content'!W$4</f>
-        <v>114</v>
-      </c>
-      <c r="H36">
-        <f>H19*'Manure nutrient content'!X$4</f>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f>I19*'Manure nutrient content'!Y$4</f>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="J36">
-        <f>J19*'Manure nutrient content'!Z$4</f>
-        <v>493.6</v>
-      </c>
-      <c r="K36">
-        <f>K19*'Manure nutrient content'!AA$4</f>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f>L19*'Manure nutrient content'!AB$4</f>
-        <v>194.25</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="0"/>
-        <v>14.912666666666668</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37">
-        <f>C19*'Manure nutrient content'!S$5</f>
-        <v>54.400000000000006</v>
-      </c>
-      <c r="D37">
-        <f>D19*'Manure nutrient content'!T$5</f>
-        <v>36</v>
-      </c>
-      <c r="E37">
-        <f>E19*'Manure nutrient content'!U$5</f>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f>F19*'Manure nutrient content'!V$5</f>
-        <v>28.8</v>
-      </c>
-      <c r="G37">
-        <f>G19*'Manure nutrient content'!W$5</f>
-        <v>84</v>
-      </c>
-      <c r="H37">
-        <f>H19*'Manure nutrient content'!X$5</f>
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <f>I19*'Manure nutrient content'!Y$5</f>
-        <v>53.733333333333327</v>
-      </c>
-      <c r="J37">
-        <f>J19*'Manure nutrient content'!Z$5</f>
-        <v>380</v>
-      </c>
-      <c r="K37">
-        <f>K19*'Manure nutrient content'!AA$5</f>
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <f>L19*'Manure nutrient content'!AB$5</f>
-        <v>71.399999999999991</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="0"/>
-        <v>7.8633333333333333</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38">
-        <f>C19*'Manure nutrient content'!S$6</f>
-        <v>136</v>
-      </c>
-      <c r="D38">
-        <f>D19*'Manure nutrient content'!T$6</f>
-        <v>96</v>
-      </c>
-      <c r="E38">
-        <f>E19*'Manure nutrient content'!U$6</f>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f>F19*'Manure nutrient content'!V$6</f>
-        <v>38.4</v>
-      </c>
-      <c r="G38">
-        <f>G19*'Manure nutrient content'!W$6</f>
-        <v>57</v>
-      </c>
-      <c r="H38">
-        <f>H19*'Manure nutrient content'!X$6</f>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f>I19*'Manure nutrient content'!Y$6</f>
-        <v>104</v>
-      </c>
-      <c r="J38">
-        <f>J19*'Manure nutrient content'!Z$6</f>
-        <v>324.80000000000007</v>
-      </c>
-      <c r="K38">
-        <f>K19*'Manure nutrient content'!AA$6</f>
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f>L19*'Manure nutrient content'!AB$6</f>
-        <v>141.75</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="0"/>
-        <v>17.09</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34:N35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>7.2</v>
-      </c>
-      <c r="D6">
-        <v>0.8</v>
-      </c>
-      <c r="E6">
-        <v>0.9</v>
-      </c>
-      <c r="F6">
-        <v>1.8</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1.7</v>
-      </c>
-      <c r="I6">
-        <v>0.7</v>
-      </c>
-      <c r="K6">
-        <v>2.9</v>
-      </c>
-      <c r="L6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1">
-        <v>175001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20278</v>
-      </c>
-      <c r="E7" s="1">
-        <v>22123</v>
-      </c>
-      <c r="F7" s="1">
-        <v>43851</v>
-      </c>
-      <c r="G7" s="1">
-        <v>48108</v>
-      </c>
-      <c r="H7" s="1">
-        <v>42559</v>
-      </c>
-      <c r="I7" s="1">
-        <v>16946</v>
-      </c>
-      <c r="K7" s="1">
-        <v>71816</v>
-      </c>
-      <c r="L7" s="1">
-        <v>22990</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>21</v>
-      </c>
-      <c r="L8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>4.2</v>
-      </c>
-      <c r="D9">
-        <v>0.7</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>1.2</v>
-      </c>
-      <c r="G9">
-        <v>0.4</v>
-      </c>
-      <c r="H9">
-        <v>0.3</v>
-      </c>
-      <c r="I9">
-        <v>0.3</v>
-      </c>
-      <c r="K9">
-        <v>1.5</v>
-      </c>
-      <c r="L9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>227</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>32</v>
-      </c>
-      <c r="H10">
-        <v>30</v>
-      </c>
-      <c r="I10">
-        <v>16</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>45</v>
-      </c>
-      <c r="L10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>19.3</v>
-      </c>
-      <c r="D12">
-        <v>3.5</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.7</v>
-      </c>
-      <c r="G12">
-        <v>1.9</v>
-      </c>
-      <c r="H12">
-        <v>1.7</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1.9</v>
-      </c>
-      <c r="L12">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1">
-        <v>385589</v>
-      </c>
-      <c r="D13" s="1">
-        <v>69779</v>
-      </c>
-      <c r="E13" s="1">
-        <v>40705</v>
-      </c>
-      <c r="F13" s="1">
-        <v>14980</v>
-      </c>
-      <c r="G13" s="1">
-        <v>38094</v>
-      </c>
-      <c r="H13" s="1">
-        <v>34328</v>
-      </c>
-      <c r="I13" s="1">
-        <v>19798</v>
-      </c>
-      <c r="K13" s="1">
-        <v>38276</v>
-      </c>
-      <c r="L13" s="1">
-        <v>22611</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>31</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
-      <c r="I14">
-        <v>18</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-      <c r="L14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D15">
-        <v>2.1</v>
-      </c>
-      <c r="E15">
-        <v>0.8</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.3</v>
-      </c>
-      <c r="H15">
-        <v>0.3</v>
-      </c>
-      <c r="I15">
-        <v>0.4</v>
-      </c>
-      <c r="K15">
-        <v>0.8</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>504</v>
-      </c>
-      <c r="D16">
-        <v>90</v>
-      </c>
-      <c r="E16">
-        <v>28</v>
-      </c>
-      <c r="F16">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>36</v>
-      </c>
-      <c r="H16">
-        <v>37</v>
-      </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>32</v>
-      </c>
-      <c r="L16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>24.4</v>
-      </c>
-      <c r="F18">
-        <v>0.2</v>
-      </c>
-      <c r="G18">
-        <v>0.3</v>
-      </c>
-      <c r="H18">
-        <v>0.1</v>
-      </c>
-      <c r="I18">
-        <v>1.5</v>
-      </c>
-      <c r="J18">
-        <v>0.7</v>
-      </c>
-      <c r="K18">
-        <v>0.2</v>
-      </c>
-      <c r="L18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1344933</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1367815</v>
-      </c>
-      <c r="F19" s="1">
-        <v>12801</v>
-      </c>
-      <c r="G19" s="1">
-        <v>18898</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4111</v>
-      </c>
-      <c r="I19" s="1">
-        <v>84325</v>
-      </c>
-      <c r="J19" s="1">
-        <v>37355</v>
-      </c>
-      <c r="K19" s="1">
-        <v>13989</v>
-      </c>
-      <c r="L19" s="1">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>27</v>
-      </c>
-      <c r="F20">
-        <v>23</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>31</v>
-      </c>
-      <c r="K20">
-        <v>21</v>
-      </c>
-      <c r="L20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21">
-        <v>20.6</v>
-      </c>
-      <c r="D21">
-        <v>37</v>
-      </c>
-      <c r="F21">
-        <v>0.3</v>
-      </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.8</v>
-      </c>
-      <c r="J21">
-        <v>1.2</v>
-      </c>
-      <c r="K21">
-        <v>0.3</v>
-      </c>
-      <c r="L21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22">
-        <v>731</v>
-      </c>
-      <c r="D22">
-        <v>566</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22">
-        <v>47</v>
-      </c>
-      <c r="J22">
-        <v>17</v>
-      </c>
-      <c r="K22">
-        <v>7</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -6304,7 +6342,7 @@
         <v>32.726966666666669</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -6353,7 +6391,7 @@
         <v>29.849533333333337</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -6402,12 +6440,12 @@
         <v>24.3521</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>59</v>
       </c>
@@ -6456,7 +6494,7 @@
         <v>31.952300000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>60</v>
       </c>
@@ -6505,7 +6543,7 @@
         <v>28.579000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>61</v>
       </c>
@@ -6554,12 +6592,12 @@
         <v>24.131700000000006</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -6608,7 +6646,7 @@
         <v>23.564416666666666</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -6657,7 +6695,7 @@
         <v>23.63133333333333</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -6712,19 +6750,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N26" sqref="N26:N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -6756,7 +6794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>19</v>
       </c>
@@ -6788,7 +6826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>42</v>
       </c>
@@ -6811,7 +6849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
         <v>48</v>
       </c>
@@ -6822,12 +6860,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -6859,7 +6897,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -6891,7 +6929,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -6923,7 +6961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -6955,7 +6993,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -6990,12 +7028,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -7027,7 +7065,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>31</v>
       </c>
@@ -7059,7 +7097,7 @@
         <v>15470</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -7091,7 +7129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -7123,7 +7161,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -7158,12 +7196,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -7195,7 +7233,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -7227,7 +7265,7 @@
         <v>16610</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -7259,7 +7297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -7291,7 +7329,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -7326,7 +7364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -7334,7 +7372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -7383,7 +7421,7 @@
         <v>19.049466666666671</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -7432,7 +7470,7 @@
         <v>17.139133333333334</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -7481,12 +7519,12 @@
         <v>13.841599999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>59</v>
       </c>
@@ -7535,7 +7573,7 @@
         <v>23.224399999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>60</v>
       </c>
@@ -7584,7 +7622,7 @@
         <v>24.102400000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>61</v>
       </c>
@@ -7633,12 +7671,12 @@
         <v>14.710400000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -7687,7 +7725,7 @@
         <v>21.528266666666667</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -7736,7 +7774,7 @@
         <v>25.988133333333334</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -7791,19 +7829,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -7835,7 +7873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>19</v>
       </c>
@@ -7867,7 +7905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>42</v>
       </c>
@@ -7890,7 +7928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
         <v>48</v>
       </c>
@@ -7901,12 +7939,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -7941,7 +7979,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -7976,7 +8014,7 @@
         <v>50851</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -8011,7 +8049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>50</v>
       </c>
@@ -8046,7 +8084,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -8081,12 +8119,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -8118,7 +8156,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>31</v>
       </c>
@@ -8150,7 +8188,7 @@
         <v>16736</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -8182,7 +8220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>50</v>
       </c>
@@ -8214,7 +8252,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -8249,12 +8287,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -8289,7 +8327,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -8324,7 +8362,7 @@
         <v>12405</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -8359,7 +8397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -8394,7 +8432,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -8429,7 +8467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -8437,7 +8475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -8486,7 +8524,7 @@
         <v>29.374893333333333</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -8535,7 +8573,7 @@
         <v>26.114066666666663</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -8584,12 +8622,12 @@
         <v>22.254880000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>59</v>
       </c>
@@ -8638,7 +8676,7 @@
         <v>31.654199999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>60</v>
       </c>
@@ -8687,7 +8725,7 @@
         <v>30.1096</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>61</v>
       </c>
@@ -8736,12 +8774,12 @@
         <v>22.3687</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -8790,7 +8828,7 @@
         <v>27.330399999999994</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -8839,7 +8877,7 @@
         <v>30.352799999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -8894,19 +8932,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -8938,7 +8976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>51</v>
       </c>
@@ -8970,7 +9008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -9002,7 +9040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
         <v>48</v>
       </c>
@@ -9013,12 +9051,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -9050,7 +9088,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -9082,7 +9120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -9114,7 +9152,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -9149,288 +9187,288 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>25.6</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>4.2</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1.6</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.5</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>1.3</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>1.3</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>0.5</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>24</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>35</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>28</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>30</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>13</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>13</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>23</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>18</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.6</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.2</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>0.2</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.2</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.3</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>501</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>87</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>23</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>21</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>33</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>11</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>13</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>23.3</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>24.2</v>
-      </c>
-      <c r="E16">
-        <v>0.2</v>
-      </c>
-      <c r="F16">
-        <v>0.4</v>
-      </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>0.5</v>
-      </c>
-      <c r="I16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J16">
-        <v>0.3</v>
-      </c>
-      <c r="K16">
-        <v>0.1</v>
-      </c>
-      <c r="L16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>29</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>13</v>
-      </c>
-      <c r="I17">
-        <v>13</v>
-      </c>
-      <c r="J17">
-        <v>34</v>
-      </c>
-      <c r="K17">
-        <v>19</v>
-      </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>20.7</v>
-      </c>
-      <c r="D18">
-        <v>36.299999999999997</v>
       </c>
       <c r="E18">
         <v>0.2</v>
       </c>
       <c r="F18">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G18">
         <v>0.1</v>
       </c>
       <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J18">
         <v>0.3</v>
-      </c>
-      <c r="I18">
-        <v>0.7</v>
-      </c>
-      <c r="J18">
-        <v>0.5</v>
       </c>
       <c r="K18">
         <v>0.1</v>
       </c>
       <c r="L18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>716</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>560</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <v>13</v>
       </c>
       <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+      <c r="L19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>20.7</v>
+      </c>
+      <c r="D20">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="I20">
+        <v>0.7</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>0.1</v>
+      </c>
+      <c r="L20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>716</v>
+      </c>
+      <c r="D21">
+        <v>560</v>
+      </c>
+      <c r="E21">
         <v>10</v>
       </c>
-      <c r="H19">
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
         <v>12</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>39</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>14</v>
       </c>
-      <c r="K19">
+      <c r="K21">
         <v>6</v>
       </c>
-      <c r="L19">
+      <c r="L21">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -9438,7 +9476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -9487,7 +9525,7 @@
         <v>36.066200000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -9536,7 +9574,7 @@
         <v>32.780799999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -9585,53 +9623,53 @@
         <v>28.635599999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31">
-        <f>C12*'Manure nutrient content'!S$4</f>
+        <f>C13*'Manure nutrient content'!S$4</f>
         <v>144</v>
       </c>
       <c r="D31">
-        <f>D12*'Manure nutrient content'!T$4</f>
+        <f>D13*'Manure nutrient content'!T$4</f>
         <v>91</v>
       </c>
       <c r="E31">
-        <f>E12*'Manure nutrient content'!U$4</f>
+        <f>E13*'Manure nutrient content'!U$4</f>
         <v>196</v>
       </c>
       <c r="F31">
-        <f>F12*'Manure nutrient content'!V$4</f>
+        <f>F13*'Manure nutrient content'!V$4</f>
         <v>108</v>
       </c>
       <c r="G31">
-        <f>G12*'Manure nutrient content'!W$4</f>
+        <f>G13*'Manure nutrient content'!W$4</f>
         <v>247</v>
       </c>
       <c r="H31">
-        <f>H12*'Manure nutrient content'!X$4</f>
+        <f>H13*'Manure nutrient content'!X$4</f>
         <v>390</v>
       </c>
       <c r="I31">
-        <f>I12*'Manure nutrient content'!Y$4</f>
+        <f>I13*'Manure nutrient content'!Y$4</f>
         <v>153.33333333333334</v>
       </c>
       <c r="J31">
-        <f>J12*'Manure nutrient content'!Z$4</f>
+        <f>J13*'Manure nutrient content'!Z$4</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>K12*'Manure nutrient content'!AA$4</f>
+        <f>K13*'Manure nutrient content'!AA$4</f>
         <v>261</v>
       </c>
       <c r="L31">
-        <f>L12*'Manure nutrient content'!AB$4</f>
+        <f>L13*'Manure nutrient content'!AB$4</f>
         <v>286.75</v>
       </c>
       <c r="N31">
@@ -9639,48 +9677,48 @@
         <v>37.503999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32">
-        <f>C12*'Manure nutrient content'!S$5</f>
+        <f>C13*'Manure nutrient content'!S$5</f>
         <v>76.800000000000011</v>
       </c>
       <c r="D32">
-        <f>D12*'Manure nutrient content'!T$5</f>
+        <f>D13*'Manure nutrient content'!T$5</f>
         <v>42</v>
       </c>
       <c r="E32">
-        <f>E12*'Manure nutrient content'!U$5</f>
+        <f>E13*'Manure nutrient content'!U$5</f>
         <v>168</v>
       </c>
       <c r="F32">
-        <f>F12*'Manure nutrient content'!V$5</f>
+        <f>F13*'Manure nutrient content'!V$5</f>
         <v>54</v>
       </c>
       <c r="G32">
-        <f>G12*'Manure nutrient content'!W$5</f>
+        <f>G13*'Manure nutrient content'!W$5</f>
         <v>182</v>
       </c>
       <c r="H32">
-        <f>H12*'Manure nutrient content'!X$5</f>
+        <f>H13*'Manure nutrient content'!X$5</f>
         <v>325</v>
       </c>
       <c r="I32">
-        <f>I12*'Manure nutrient content'!Y$5</f>
+        <f>I13*'Manure nutrient content'!Y$5</f>
         <v>95.066666666666663</v>
       </c>
       <c r="J32">
-        <f>J12*'Manure nutrient content'!Z$5</f>
+        <f>J13*'Manure nutrient content'!Z$5</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>K12*'Manure nutrient content'!AA$5</f>
+        <f>K13*'Manure nutrient content'!AA$5</f>
         <v>442.8</v>
       </c>
       <c r="L32">
-        <f>L12*'Manure nutrient content'!AB$5</f>
+        <f>L13*'Manure nutrient content'!AB$5</f>
         <v>105.39999999999999</v>
       </c>
       <c r="N32">
@@ -9688,48 +9726,48 @@
         <v>32.884799999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33">
-        <f>C12*'Manure nutrient content'!S$6</f>
+        <f>C13*'Manure nutrient content'!S$6</f>
         <v>192</v>
       </c>
       <c r="D33">
-        <f>D12*'Manure nutrient content'!T$6</f>
+        <f>D13*'Manure nutrient content'!T$6</f>
         <v>112</v>
       </c>
       <c r="E33">
-        <f>E12*'Manure nutrient content'!U$6</f>
+        <f>E13*'Manure nutrient content'!U$6</f>
         <v>224</v>
       </c>
       <c r="F33">
-        <f>F12*'Manure nutrient content'!V$6</f>
+        <f>F13*'Manure nutrient content'!V$6</f>
         <v>72</v>
       </c>
       <c r="G33">
-        <f>G12*'Manure nutrient content'!W$6</f>
+        <f>G13*'Manure nutrient content'!W$6</f>
         <v>123.5</v>
       </c>
       <c r="H33">
-        <f>H12*'Manure nutrient content'!X$6</f>
+        <f>H13*'Manure nutrient content'!X$6</f>
         <v>234</v>
       </c>
       <c r="I33">
-        <f>I12*'Manure nutrient content'!Y$6</f>
+        <f>I13*'Manure nutrient content'!Y$6</f>
         <v>184</v>
       </c>
       <c r="J33">
-        <f>J12*'Manure nutrient content'!Z$6</f>
+        <f>J13*'Manure nutrient content'!Z$6</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>K12*'Manure nutrient content'!AA$6</f>
+        <f>K13*'Manure nutrient content'!AA$6</f>
         <v>23.400000000000002</v>
       </c>
       <c r="L33">
-        <f>L12*'Manure nutrient content'!AB$6</f>
+        <f>L13*'Manure nutrient content'!AB$6</f>
         <v>209.25</v>
       </c>
       <c r="N33">
@@ -9737,53 +9775,53 @@
         <v>29.648400000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36">
-        <f>C17*'Manure nutrient content'!S$4</f>
+        <f>C19*'Manure nutrient content'!S$4</f>
         <v>102</v>
       </c>
       <c r="D36">
-        <f>D17*'Manure nutrient content'!T$4</f>
+        <f>D19*'Manure nutrient content'!T$4</f>
         <v>75.400000000000006</v>
       </c>
       <c r="E36">
-        <f>E17*'Manure nutrient content'!U$4</f>
+        <f>E19*'Manure nutrient content'!U$4</f>
         <v>140</v>
       </c>
       <c r="F36">
-        <f>F17*'Manure nutrient content'!V$4</f>
+        <f>F19*'Manure nutrient content'!V$4</f>
         <v>46.800000000000004</v>
       </c>
       <c r="G36">
-        <f>G17*'Manure nutrient content'!W$4</f>
+        <f>G19*'Manure nutrient content'!W$4</f>
         <v>152</v>
       </c>
       <c r="H36">
-        <f>H17*'Manure nutrient content'!X$4</f>
+        <f>H19*'Manure nutrient content'!X$4</f>
         <v>390</v>
       </c>
       <c r="I36">
-        <f>I17*'Manure nutrient content'!Y$4</f>
+        <f>I19*'Manure nutrient content'!Y$4</f>
         <v>86.666666666666671</v>
       </c>
       <c r="J36">
-        <f>J17*'Manure nutrient content'!Z$4</f>
+        <f>J19*'Manure nutrient content'!Z$4</f>
         <v>419.56</v>
       </c>
       <c r="K36">
-        <f>K17*'Manure nutrient content'!AA$4</f>
+        <f>K19*'Manure nutrient content'!AA$4</f>
         <v>275.5</v>
       </c>
       <c r="L36">
-        <f>L17*'Manure nutrient content'!AB$4</f>
+        <f>L19*'Manure nutrient content'!AB$4</f>
         <v>148</v>
       </c>
       <c r="N36">
@@ -9791,48 +9829,48 @@
         <v>30.303500000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37">
-        <f>C17*'Manure nutrient content'!S$5</f>
+        <f>C19*'Manure nutrient content'!S$5</f>
         <v>54.400000000000006</v>
       </c>
       <c r="D37">
-        <f>D17*'Manure nutrient content'!T$5</f>
+        <f>D19*'Manure nutrient content'!T$5</f>
         <v>34.799999999999997</v>
       </c>
       <c r="E37">
-        <f>E17*'Manure nutrient content'!U$5</f>
+        <f>E19*'Manure nutrient content'!U$5</f>
         <v>120</v>
       </c>
       <c r="F37">
-        <f>F17*'Manure nutrient content'!V$5</f>
+        <f>F19*'Manure nutrient content'!V$5</f>
         <v>23.400000000000002</v>
       </c>
       <c r="G37">
-        <f>G17*'Manure nutrient content'!W$5</f>
+        <f>G19*'Manure nutrient content'!W$5</f>
         <v>112</v>
       </c>
       <c r="H37">
-        <f>H17*'Manure nutrient content'!X$5</f>
+        <f>H19*'Manure nutrient content'!X$5</f>
         <v>325</v>
       </c>
       <c r="I37">
-        <f>I17*'Manure nutrient content'!Y$5</f>
+        <f>I19*'Manure nutrient content'!Y$5</f>
         <v>53.733333333333327</v>
       </c>
       <c r="J37">
-        <f>J17*'Manure nutrient content'!Z$5</f>
+        <f>J19*'Manure nutrient content'!Z$5</f>
         <v>323</v>
       </c>
       <c r="K37">
-        <f>K17*'Manure nutrient content'!AA$5</f>
+        <f>K19*'Manure nutrient content'!AA$5</f>
         <v>467.40000000000003</v>
       </c>
       <c r="L37">
-        <f>L17*'Manure nutrient content'!AB$5</f>
+        <f>L19*'Manure nutrient content'!AB$5</f>
         <v>54.4</v>
       </c>
       <c r="N37">
@@ -9840,48 +9878,48 @@
         <v>29.109200000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>61</v>
       </c>
       <c r="C38">
-        <f>C17*'Manure nutrient content'!S$6</f>
+        <f>C19*'Manure nutrient content'!S$6</f>
         <v>136</v>
       </c>
       <c r="D38">
-        <f>D17*'Manure nutrient content'!T$6</f>
+        <f>D19*'Manure nutrient content'!T$6</f>
         <v>92.800000000000011</v>
       </c>
       <c r="E38">
-        <f>E17*'Manure nutrient content'!U$6</f>
+        <f>E19*'Manure nutrient content'!U$6</f>
         <v>160</v>
       </c>
       <c r="F38">
-        <f>F17*'Manure nutrient content'!V$6</f>
+        <f>F19*'Manure nutrient content'!V$6</f>
         <v>31.2</v>
       </c>
       <c r="G38">
-        <f>G17*'Manure nutrient content'!W$6</f>
+        <f>G19*'Manure nutrient content'!W$6</f>
         <v>76</v>
       </c>
       <c r="H38">
-        <f>H17*'Manure nutrient content'!X$6</f>
+        <f>H19*'Manure nutrient content'!X$6</f>
         <v>234</v>
       </c>
       <c r="I38">
-        <f>I17*'Manure nutrient content'!Y$6</f>
+        <f>I19*'Manure nutrient content'!Y$6</f>
         <v>104</v>
       </c>
       <c r="J38">
-        <f>J17*'Manure nutrient content'!Z$6</f>
+        <f>J19*'Manure nutrient content'!Z$6</f>
         <v>276.08000000000004</v>
       </c>
       <c r="K38">
-        <f>K17*'Manure nutrient content'!AA$6</f>
+        <f>K19*'Manure nutrient content'!AA$6</f>
         <v>24.7</v>
       </c>
       <c r="L38">
-        <f>L17*'Manure nutrient content'!AB$6</f>
+        <f>L19*'Manure nutrient content'!AB$6</f>
         <v>108</v>
       </c>
       <c r="N38">
@@ -9895,19 +9933,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -9939,7 +9977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>51</v>
       </c>
@@ -9971,7 +10009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -10003,7 +10041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
         <v>48</v>
       </c>
@@ -10014,12 +10052,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -10051,7 +10089,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -10083,7 +10121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -10115,7 +10153,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -10150,214 +10188,156 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>20.100000000000001</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>2.6</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.2</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>1.3</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>0.4</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>1.3</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>23</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>27</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>25</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>21</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>9</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>25</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>25</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>5.5</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.8</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.6</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.1</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>0.1</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.1</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.4</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>311</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>44</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>29</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>16</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>24</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>10</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>20</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>23.6</v>
-      </c>
-      <c r="F16">
-        <v>0.3</v>
-      </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>0.3</v>
-      </c>
-      <c r="I16">
-        <v>0.8</v>
-      </c>
-      <c r="J16">
-        <v>0.4</v>
-      </c>
-      <c r="K16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>32</v>
-      </c>
-      <c r="F17">
-        <v>21</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>23.1</v>
-      </c>
-      <c r="D18">
-        <v>37.299999999999997</v>
       </c>
       <c r="F18">
         <v>0.3</v>
@@ -10366,54 +10346,112 @@
         <v>0.1</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I18">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="J18">
+        <v>0.4</v>
+      </c>
+      <c r="K18">
         <v>0.7</v>
       </c>
-      <c r="K18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>745</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>495</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
       <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>23.1</v>
+      </c>
+      <c r="D20">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+      <c r="J20">
+        <v>0.7</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>745</v>
+      </c>
+      <c r="D21">
+        <v>495</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
         <v>11</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>29</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>14</v>
       </c>
-      <c r="K19">
+      <c r="K21">
         <v>19</v>
       </c>
-      <c r="L19">
+      <c r="L21">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -10421,7 +10459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -10470,7 +10508,7 @@
         <v>28.488666666666667</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -10519,7 +10557,7 @@
         <v>26.207133333333331</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -10568,53 +10606,53 @@
         <v>20.909600000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31">
-        <f>C12*'Manure nutrient content'!S$4</f>
+        <f>C13*'Manure nutrient content'!S$4</f>
         <v>138</v>
       </c>
       <c r="D31">
-        <f>D12*'Manure nutrient content'!T$4</f>
+        <f>D13*'Manure nutrient content'!T$4</f>
         <v>70.2</v>
       </c>
       <c r="E31">
-        <f>E12*'Manure nutrient content'!U$4</f>
+        <f>E13*'Manure nutrient content'!U$4</f>
         <v>175</v>
       </c>
       <c r="F31">
-        <f>F12*'Manure nutrient content'!V$4</f>
+        <f>F13*'Manure nutrient content'!V$4</f>
         <v>75.600000000000009</v>
       </c>
       <c r="G31">
-        <f>G12*'Manure nutrient content'!W$4</f>
+        <f>G13*'Manure nutrient content'!W$4</f>
         <v>171</v>
       </c>
       <c r="H31">
-        <f>H12*'Manure nutrient content'!X$4</f>
+        <f>H13*'Manure nutrient content'!X$4</f>
         <v>270</v>
       </c>
       <c r="I31">
-        <f>I12*'Manure nutrient content'!Y$4</f>
+        <f>I13*'Manure nutrient content'!Y$4</f>
         <v>166.66666666666669</v>
       </c>
       <c r="J31">
-        <f>J12*'Manure nutrient content'!Z$4</f>
+        <f>J13*'Manure nutrient content'!Z$4</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>K12*'Manure nutrient content'!AA$4</f>
+        <f>K13*'Manure nutrient content'!AA$4</f>
         <v>362.5</v>
       </c>
       <c r="L31">
-        <f>L12*'Manure nutrient content'!AB$4</f>
+        <f>L13*'Manure nutrient content'!AB$4</f>
         <v>157.25</v>
       </c>
       <c r="N31">
@@ -10622,48 +10660,48 @@
         <v>27.486466666666676</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32">
-        <f>C12*'Manure nutrient content'!S$5</f>
+        <f>C13*'Manure nutrient content'!S$5</f>
         <v>73.600000000000009</v>
       </c>
       <c r="D32">
-        <f>D12*'Manure nutrient content'!T$5</f>
+        <f>D13*'Manure nutrient content'!T$5</f>
         <v>32.4</v>
       </c>
       <c r="E32">
-        <f>E12*'Manure nutrient content'!U$5</f>
+        <f>E13*'Manure nutrient content'!U$5</f>
         <v>150</v>
       </c>
       <c r="F32">
-        <f>F12*'Manure nutrient content'!V$5</f>
+        <f>F13*'Manure nutrient content'!V$5</f>
         <v>37.800000000000004</v>
       </c>
       <c r="G32">
-        <f>G12*'Manure nutrient content'!W$5</f>
+        <f>G13*'Manure nutrient content'!W$5</f>
         <v>126</v>
       </c>
       <c r="H32">
-        <f>H12*'Manure nutrient content'!X$5</f>
+        <f>H13*'Manure nutrient content'!X$5</f>
         <v>225</v>
       </c>
       <c r="I32">
-        <f>I12*'Manure nutrient content'!Y$5</f>
+        <f>I13*'Manure nutrient content'!Y$5</f>
         <v>103.33333333333331</v>
       </c>
       <c r="J32">
-        <f>J12*'Manure nutrient content'!Z$5</f>
+        <f>J13*'Manure nutrient content'!Z$5</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>K12*'Manure nutrient content'!AA$5</f>
+        <f>K13*'Manure nutrient content'!AA$5</f>
         <v>615</v>
       </c>
       <c r="L32">
-        <f>L12*'Manure nutrient content'!AB$5</f>
+        <f>L13*'Manure nutrient content'!AB$5</f>
         <v>57.8</v>
       </c>
       <c r="N32">
@@ -10671,48 +10709,48 @@
         <v>27.34333333333333</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33">
-        <f>C12*'Manure nutrient content'!S$6</f>
+        <f>C13*'Manure nutrient content'!S$6</f>
         <v>184</v>
       </c>
       <c r="D33">
-        <f>D12*'Manure nutrient content'!T$6</f>
+        <f>D13*'Manure nutrient content'!T$6</f>
         <v>86.4</v>
       </c>
       <c r="E33">
-        <f>E12*'Manure nutrient content'!U$6</f>
+        <f>E13*'Manure nutrient content'!U$6</f>
         <v>200</v>
       </c>
       <c r="F33">
-        <f>F12*'Manure nutrient content'!V$6</f>
+        <f>F13*'Manure nutrient content'!V$6</f>
         <v>50.4</v>
       </c>
       <c r="G33">
-        <f>G12*'Manure nutrient content'!W$6</f>
+        <f>G13*'Manure nutrient content'!W$6</f>
         <v>85.5</v>
       </c>
       <c r="H33">
-        <f>H12*'Manure nutrient content'!X$6</f>
+        <f>H13*'Manure nutrient content'!X$6</f>
         <v>162</v>
       </c>
       <c r="I33">
-        <f>I12*'Manure nutrient content'!Y$6</f>
+        <f>I13*'Manure nutrient content'!Y$6</f>
         <v>200</v>
       </c>
       <c r="J33">
-        <f>J12*'Manure nutrient content'!Z$6</f>
+        <f>J13*'Manure nutrient content'!Z$6</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>K12*'Manure nutrient content'!AA$6</f>
+        <f>K13*'Manure nutrient content'!AA$6</f>
         <v>32.5</v>
       </c>
       <c r="L33">
-        <f>L12*'Manure nutrient content'!AB$6</f>
+        <f>L13*'Manure nutrient content'!AB$6</f>
         <v>114.75</v>
       </c>
       <c r="N33">
@@ -10720,53 +10758,53 @@
         <v>19.042199999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36">
-        <f>C17*'Manure nutrient content'!S$4</f>
+        <f>C19*'Manure nutrient content'!S$4</f>
         <v>108</v>
       </c>
       <c r="D36">
-        <f>D17*'Manure nutrient content'!T$4</f>
+        <f>D19*'Manure nutrient content'!T$4</f>
         <v>83.2</v>
       </c>
       <c r="E36">
-        <f>E17*'Manure nutrient content'!U$4</f>
+        <f>E19*'Manure nutrient content'!U$4</f>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>F17*'Manure nutrient content'!V$4</f>
+        <f>F19*'Manure nutrient content'!V$4</f>
         <v>75.600000000000009</v>
       </c>
       <c r="G36">
-        <f>G17*'Manure nutrient content'!W$4</f>
+        <f>G19*'Manure nutrient content'!W$4</f>
         <v>190</v>
       </c>
       <c r="H36">
-        <f>H17*'Manure nutrient content'!X$4</f>
+        <f>H19*'Manure nutrient content'!X$4</f>
         <v>210</v>
       </c>
       <c r="I36">
-        <f>I17*'Manure nutrient content'!Y$4</f>
+        <f>I19*'Manure nutrient content'!Y$4</f>
         <v>46.666666666666671</v>
       </c>
       <c r="J36">
-        <f>J17*'Manure nutrient content'!Z$4</f>
+        <f>J19*'Manure nutrient content'!Z$4</f>
         <v>493.6</v>
       </c>
       <c r="K36">
-        <f>K17*'Manure nutrient content'!AA$4</f>
+        <f>K19*'Manure nutrient content'!AA$4</f>
         <v>188.5</v>
       </c>
       <c r="L36">
-        <f>L17*'Manure nutrient content'!AB$4</f>
+        <f>L19*'Manure nutrient content'!AB$4</f>
         <v>0</v>
       </c>
       <c r="N36">
@@ -10774,48 +10812,48 @@
         <v>18.132466666666669</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37">
-        <f>C17*'Manure nutrient content'!S$5</f>
+        <f>C19*'Manure nutrient content'!S$5</f>
         <v>57.6</v>
       </c>
       <c r="D37">
-        <f>D17*'Manure nutrient content'!T$5</f>
+        <f>D19*'Manure nutrient content'!T$5</f>
         <v>38.4</v>
       </c>
       <c r="E37">
-        <f>E17*'Manure nutrient content'!U$5</f>
+        <f>E19*'Manure nutrient content'!U$5</f>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>F17*'Manure nutrient content'!V$5</f>
+        <f>F19*'Manure nutrient content'!V$5</f>
         <v>37.800000000000004</v>
       </c>
       <c r="G37">
-        <f>G17*'Manure nutrient content'!W$5</f>
+        <f>G19*'Manure nutrient content'!W$5</f>
         <v>140</v>
       </c>
       <c r="H37">
-        <f>H17*'Manure nutrient content'!X$5</f>
+        <f>H19*'Manure nutrient content'!X$5</f>
         <v>175</v>
       </c>
       <c r="I37">
-        <f>I17*'Manure nutrient content'!Y$5</f>
+        <f>I19*'Manure nutrient content'!Y$5</f>
         <v>28.93333333333333</v>
       </c>
       <c r="J37">
-        <f>J17*'Manure nutrient content'!Z$5</f>
+        <f>J19*'Manure nutrient content'!Z$5</f>
         <v>380</v>
       </c>
       <c r="K37">
-        <f>K17*'Manure nutrient content'!AA$5</f>
+        <f>K19*'Manure nutrient content'!AA$5</f>
         <v>319.8</v>
       </c>
       <c r="L37">
-        <f>L17*'Manure nutrient content'!AB$5</f>
+        <f>L19*'Manure nutrient content'!AB$5</f>
         <v>0</v>
       </c>
       <c r="N37">
@@ -10823,48 +10861,48 @@
         <v>16.717333333333332</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>61</v>
       </c>
       <c r="C38">
-        <f>C17*'Manure nutrient content'!S$6</f>
+        <f>C19*'Manure nutrient content'!S$6</f>
         <v>144</v>
       </c>
       <c r="D38">
-        <f>D17*'Manure nutrient content'!T$6</f>
+        <f>D19*'Manure nutrient content'!T$6</f>
         <v>102.4</v>
       </c>
       <c r="E38">
-        <f>E17*'Manure nutrient content'!U$6</f>
+        <f>E19*'Manure nutrient content'!U$6</f>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>F17*'Manure nutrient content'!V$6</f>
+        <f>F19*'Manure nutrient content'!V$6</f>
         <v>50.4</v>
       </c>
       <c r="G38">
-        <f>G17*'Manure nutrient content'!W$6</f>
+        <f>G19*'Manure nutrient content'!W$6</f>
         <v>95</v>
       </c>
       <c r="H38">
-        <f>H17*'Manure nutrient content'!X$6</f>
+        <f>H19*'Manure nutrient content'!X$6</f>
         <v>126</v>
       </c>
       <c r="I38">
-        <f>I17*'Manure nutrient content'!Y$6</f>
+        <f>I19*'Manure nutrient content'!Y$6</f>
         <v>56</v>
       </c>
       <c r="J38">
-        <f>J17*'Manure nutrient content'!Z$6</f>
+        <f>J19*'Manure nutrient content'!Z$6</f>
         <v>324.80000000000007</v>
       </c>
       <c r="K38">
-        <f>K17*'Manure nutrient content'!AA$6</f>
+        <f>K19*'Manure nutrient content'!AA$6</f>
         <v>16.900000000000002</v>
       </c>
       <c r="L38">
-        <f>L17*'Manure nutrient content'!AB$6</f>
+        <f>L19*'Manure nutrient content'!AB$6</f>
         <v>0</v>
       </c>
       <c r="N38">
